--- a/Results/FOOD.xlsx
+++ b/Results/FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="603">
   <si>
     <t>id</t>
   </si>
@@ -103,9 +103,6 @@
     <t>1090587:3</t>
   </si>
   <si>
-    <t>1102681:2</t>
-  </si>
-  <si>
     <t>1118167:2</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>1205520:2</t>
   </si>
   <si>
-    <t>1212346:0</t>
-  </si>
-  <si>
     <t>1212346:4</t>
   </si>
   <si>
@@ -256,15 +250,9 @@
     <t>1275154:8</t>
   </si>
   <si>
-    <t>1280166:2</t>
-  </si>
-  <si>
     <t>1280166:3</t>
   </si>
   <si>
-    <t>1280179:3</t>
-  </si>
-  <si>
     <t>1286916:3</t>
   </si>
   <si>
@@ -346,18 +334,12 @@
     <t>1347423:1</t>
   </si>
   <si>
-    <t>1349391:1</t>
-  </si>
-  <si>
     <t>1352948:0</t>
   </si>
   <si>
     <t>1353599:0</t>
   </si>
   <si>
-    <t>1353599:1</t>
-  </si>
-  <si>
     <t>1353599:2</t>
   </si>
   <si>
@@ -442,9 +424,6 @@
     <t>1632445:5</t>
   </si>
   <si>
-    <t>1632445:6</t>
-  </si>
-  <si>
     <t>1655504:1</t>
   </si>
   <si>
@@ -637,9 +616,6 @@
     <t>the lava cake dessert was incredible and i recommend it.</t>
   </si>
   <si>
-    <t>the food was average to above-average; the french onion soup filling yet not overly impressive, and the desserts not brilliant in any way.</t>
-  </si>
-  <si>
     <t>the pizza was delivered cold and the cheese wasn't even fully melted!</t>
   </si>
   <si>
@@ -736,9 +712,6 @@
     <t>make sure you have the spicy scallop roll.. .</t>
   </si>
   <si>
-    <t>moules were excellent, lobster ravioli was very salty!</t>
-  </si>
-  <si>
     <t>tiny dessert was $8.00...just plain overpriced for what it is.</t>
   </si>
   <si>
@@ -790,15 +763,9 @@
     <t>try the lobster teriyaki and the rose special roll.</t>
   </si>
   <si>
-    <t>food was very good as well, considering that we tried the budget selection (though i wish the pork belly that i ordered was roasted a bit longer, so that fat was more of a melt-in-your-mouth experience).</t>
-  </si>
-  <si>
     <t>wine list selection is good and wine-by-the-glass was generously filled to the top.</t>
   </si>
   <si>
-    <t>food is usually very good, though ocasionally i wondered about freshmess of raw vegatables in side orders.</t>
-  </si>
-  <si>
     <t>it's simply the best meal in nyc.</t>
   </si>
   <si>
@@ -880,18 +847,12 @@
     <t>the staff was accomodating, the food was absolutely delicious and the place is lovely.</t>
   </si>
   <si>
-    <t>sometimes i get bad food and bad service, sometimes i get good good and bad service.</t>
-  </si>
-  <si>
     <t>the place is a bistro which means: simple dishes and wine served efficiently in a bustling atmosphere.</t>
   </si>
   <si>
     <t>right off the l in brooklyn this is a nice cozy place with good pizza.</t>
   </si>
   <si>
-    <t>mine was a little burnt but still delicious with goat cheese and panchetta (raddichio was kind of bitter though).</t>
-  </si>
-  <si>
     <t>my friend got the mushroom pizza which tasted better.</t>
   </si>
   <si>
@@ -976,9 +937,6 @@
     <t>even though its good seafood, the prices are too high.</t>
   </si>
   <si>
-    <t>the lobster sandwich is $24 and although it was good it was not nearly enough to warrant that price.</t>
-  </si>
-  <si>
     <t>cheese plate is a varied delight and great bargain at $10.</t>
   </si>
   <si>
@@ -1138,7 +1096,7 @@
     <t>pretty</t>
   </si>
   <si>
-    <t>goodthey</t>
+    <t>good</t>
   </si>
   <si>
     <t>well</t>
@@ -1150,18 +1108,12 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>reasonable</t>
   </si>
   <si>
-    <t>impressive</t>
-  </si>
-  <si>
     <t>cold</t>
   </si>
   <si>
@@ -1171,9 +1123,6 @@
     <t>best</t>
   </si>
   <si>
-    <t>unusual</t>
-  </si>
-  <si>
     <t>fried</t>
   </si>
   <si>
@@ -1183,7 +1132,7 @@
     <t>bland</t>
   </si>
   <si>
-    <t>watery</t>
+    <t>much</t>
   </si>
   <si>
     <t>phenomenal</t>
@@ -1207,15 +1156,15 @@
     <t>spicy</t>
   </si>
   <si>
+    <t>fairly</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>fairly</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -1261,9 +1210,6 @@
     <t>wonderful</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
     <t>organic</t>
   </si>
   <si>
@@ -1273,9 +1219,6 @@
     <t>timely</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>efficiently</t>
   </si>
   <si>
@@ -1297,24 +1240,21 @@
     <t>thai</t>
   </si>
   <si>
-    <t>excellentthe</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
     <t>redeeming</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
     <t>overdone</t>
   </si>
   <si>
     <t>recommended</t>
   </si>
   <si>
-    <t>greatest</t>
-  </si>
-  <si>
     <t>mortal</t>
   </si>
   <si>
@@ -1324,6 +1264,9 @@
     <t>nasty</t>
   </si>
   <si>
+    <t>extensive</t>
+  </si>
+  <si>
     <t>top</t>
   </si>
   <si>
@@ -1336,15 +1279,15 @@
     <t>exceeded</t>
   </si>
   <si>
+    <t>speedy</t>
+  </si>
+  <si>
     <t>friendly</t>
   </si>
   <si>
     <t>pricey</t>
   </si>
   <si>
-    <t>solid</t>
-  </si>
-  <si>
     <t>plentiful</t>
   </si>
   <si>
@@ -1441,9 +1384,6 @@
     <t>['lava', 'cake', 'dessert', 'incredible', 'recommend']</t>
   </si>
   <si>
-    <t>['food', 'average', 'aboveaverage', 'french', 'onion', 'soup', 'filling', 'yet', 'overly', 'impressive', 'dessert', 'brilliant', 'way']</t>
-  </si>
-  <si>
     <t>['pizza', 'delivered', 'cold', 'cheese', 'even', 'fully', 'melted']</t>
   </si>
   <si>
@@ -1540,9 +1480,6 @@
     <t>['make', 'sure', 'spicy', 'scallop', 'roll']</t>
   </si>
   <si>
-    <t>['moules', 'excellent', 'lobster', 'ravioli', 'salty']</t>
-  </si>
-  <si>
     <t>['tiny', 'dessert', 'just', 'plain', 'overpriced']</t>
   </si>
   <si>
@@ -1594,15 +1531,9 @@
     <t>['try', 'lobster', 'teriyaki', 'rose', 'special', 'roll']</t>
   </si>
   <si>
-    <t>['food', 'good', 'well', 'considering', 'tried', 'budget', 'selection', 'though', 'wish', 'pork', 'belly', 'ordered', 'roasted', 'bit', 'longer', 'fat', 'meltinyourmouth', 'experience']</t>
-  </si>
-  <si>
     <t>['wine', 'list', 'selection', 'good', 'winebytheglass', 'generously', 'filled', 'top']</t>
   </si>
   <si>
-    <t>['food', 'usually', 'good', 'though', 'ocasionally', 'wondered', 'freshmess', 'raw', 'vegatables', 'side', 'order']</t>
-  </si>
-  <si>
     <t>['simply', 'best', 'meal', 'nyc']</t>
   </si>
   <si>
@@ -1684,18 +1615,12 @@
     <t>['staff', 'accomodating', 'food', 'absolutely', 'delicious', 'place', 'lovely']</t>
   </si>
   <si>
-    <t>['sometimes', 'get', 'bad', 'food', 'bad', 'service', 'sometimes', 'get', 'good', 'good', 'bad', 'service']</t>
-  </si>
-  <si>
     <t>['place', 'bistro', 'mean', 'simple', 'dish', 'wine', 'served', 'efficiently', 'bustling', 'atmosphere']</t>
   </si>
   <si>
     <t>['right', 'l', 'brooklyn', 'nice', 'cozy', 'place', 'good', 'pizza']</t>
   </si>
   <si>
-    <t>['mine', 'little', 'burnt', 'still', 'delicious', 'goat', 'cheese', 'panchetta', 'raddichio', 'kind', 'bitter', 'though']</t>
-  </si>
-  <si>
     <t>['friend', 'got', 'mushroom', 'pizza', 'tasted', 'better']</t>
   </si>
   <si>
@@ -1778,9 +1703,6 @@
   </si>
   <si>
     <t>['even', 'though', 'good', 'seafood', 'price', 'high']</t>
-  </si>
-  <si>
-    <t>['lobster', 'sandwich', '', 'although', 'good', 'nearly', 'enough', 'warrant', 'price']</t>
   </si>
   <si>
     <t>['cheese', 'plate', 'varied', 'delight', 'great', 'bargain', '']</t>
@@ -2258,7 +2180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2289,16 +2211,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E2" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F2" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2309,16 +2231,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F3" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2329,16 +2251,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="E4" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F4" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2349,16 +2271,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E5" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F5" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2369,16 +2291,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="E6" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F6" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2389,16 +2311,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F7" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2409,16 +2331,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E8" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F8" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2429,16 +2351,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E9" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F9" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2449,16 +2371,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E10" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F10" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2469,16 +2391,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="E11" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F11" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2489,16 +2411,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E12" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F12" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2509,13 +2431,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>194</v>
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>357</v>
       </c>
       <c r="E13" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F13" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2526,16 +2451,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D14" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E14" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F14" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2546,16 +2471,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D15" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E15" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F15" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2566,16 +2491,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="E16" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F16" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2586,16 +2511,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E17" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F17" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2606,16 +2531,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E18" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F18" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2626,16 +2551,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E19" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F19" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2646,16 +2571,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D20" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E20" t="s">
+        <v>431</v>
+      </c>
+      <c r="F20" t="s">
         <v>450</v>
-      </c>
-      <c r="F20" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2666,16 +2591,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E21" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F21" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2686,16 +2611,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E22" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F22" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2706,16 +2631,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D23" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E23" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F23" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2726,16 +2651,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D24" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E24" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F24" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2746,16 +2671,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="E25" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F25" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2766,16 +2691,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E26" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F26" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2786,16 +2711,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D27" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E27" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F27" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2806,16 +2731,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D28" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="E28" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F28" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2826,16 +2751,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D29" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E29" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F29" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2846,16 +2771,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D30" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="E30" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F30" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2866,16 +2791,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="E31" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F31" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2886,16 +2811,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="E32" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F32" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2906,16 +2831,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D33" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E33" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F33" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2926,16 +2851,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D34" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E34" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F34" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2946,16 +2871,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="E35" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F35" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2966,16 +2891,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D36" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E36" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F36" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2986,16 +2911,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E37" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F37" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3006,16 +2931,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D38" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="E38" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F38" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3026,16 +2951,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D39" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E39" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F39" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3046,16 +2971,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D40" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E40" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F40" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3066,16 +2991,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="E41" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F41" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3086,16 +3011,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D42" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E42" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F42" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3106,16 +3031,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D43" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E43" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F43" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3126,16 +3051,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="E44" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F44" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3146,16 +3071,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D45" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E45" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F45" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3166,16 +3091,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D46" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="E46" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F46" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3186,16 +3111,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D47" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E47" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F47" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3206,16 +3131,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D48" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="E48" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F48" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3226,16 +3151,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D49" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E49" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F49" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3246,16 +3171,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D50" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E50" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F50" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3266,16 +3191,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D51" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E51" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F51" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3286,16 +3211,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D52" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E52" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F52" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3306,16 +3231,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D53" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="E53" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F53" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3326,16 +3251,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E54" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F54" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3346,16 +3271,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D55" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E55" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F55" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3366,16 +3291,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D56" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E56" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F56" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3386,16 +3311,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D57" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F57" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3406,16 +3331,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="E58" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F58" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3426,16 +3351,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D59" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="E59" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F59" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3446,16 +3371,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E60" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F60" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3466,16 +3391,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="D61" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="E61" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F61" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3486,16 +3411,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D62" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="E62" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F62" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3506,16 +3431,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="E63" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F63" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3526,16 +3451,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D64" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E64" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F64" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3546,16 +3471,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D65" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="E65" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F65" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3566,16 +3491,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D66" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="E66" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F66" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3586,16 +3511,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="E67" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F67" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3606,16 +3531,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E68" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F68" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3626,16 +3551,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D69" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="E69" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F69" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3646,16 +3571,13 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>251</v>
-      </c>
-      <c r="D70" t="s">
-        <v>402</v>
+        <v>244</v>
       </c>
       <c r="E70" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F70" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3666,16 +3588,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D71" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="E71" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F71" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3686,13 +3608,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>253</v>
+        <v>246</v>
+      </c>
+      <c r="D72" t="s">
+        <v>388</v>
       </c>
       <c r="E72" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F72" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3703,16 +3628,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D73" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E73" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F73" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3723,16 +3648,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D74" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="E74" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F74" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3743,16 +3668,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D75" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="E75" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F75" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3763,16 +3688,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D76" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="E76" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F76" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3783,16 +3708,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D77" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="E77" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F77" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3803,16 +3728,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D78" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="E78" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F78" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3823,16 +3748,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E79" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F79" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3843,16 +3768,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D80" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="E80" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F80" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3863,16 +3788,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D81" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="E81" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F81" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3883,16 +3808,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D82" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="E82" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F82" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3903,16 +3828,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D83" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="E83" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F83" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3923,16 +3848,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D84" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E84" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F84" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3943,16 +3868,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D85" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="E85" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F85" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3963,16 +3888,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D86" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="E86" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F86" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3983,16 +3908,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D87" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="E87" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F87" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4003,16 +3928,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D88" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="E88" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F88" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4023,16 +3948,13 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>270</v>
-      </c>
-      <c r="D89" t="s">
-        <v>415</v>
+        <v>263</v>
       </c>
       <c r="E89" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F89" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4043,16 +3965,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D90" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="E90" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F90" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4063,16 +3985,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D91" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="E91" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F91" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4083,16 +4005,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D92" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="E92" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F92" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4103,13 +4025,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>274</v>
+        <v>267</v>
+      </c>
+      <c r="D93" t="s">
+        <v>358</v>
       </c>
       <c r="E93" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F93" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4120,16 +4045,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D94" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E94" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F94" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4140,16 +4065,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D95" t="s">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="E95" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F95" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4160,16 +4085,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D96" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="E96" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F96" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4180,16 +4105,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D97" t="s">
-        <v>372</v>
+        <v>399</v>
       </c>
       <c r="E97" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F97" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4200,16 +4125,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="E98" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F98" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4220,16 +4145,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D99" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="E99" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F99" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4240,16 +4165,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D100" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="E100" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F100" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4260,16 +4185,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D101" t="s">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="E101" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F101" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4280,16 +4205,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D102" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="E102" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F102" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4300,16 +4225,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D103" t="s">
         <v>401</v>
       </c>
       <c r="E103" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F103" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4320,16 +4245,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D104" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="E104" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F104" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4340,16 +4265,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D105" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E105" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F105" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4360,16 +4285,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D106" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="E106" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F106" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4380,16 +4305,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D107" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="E107" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F107" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4400,16 +4325,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D108" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E108" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F108" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4420,16 +4345,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D109" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="E109" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F109" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4440,16 +4365,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D110" t="s">
-        <v>409</v>
+        <v>347</v>
       </c>
       <c r="E110" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F110" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4460,16 +4385,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D111" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="E111" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F111" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4480,16 +4405,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D112" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E112" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F112" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4500,16 +4425,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D113" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="E113" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F113" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4520,16 +4445,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D114" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="E114" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F114" t="s">
-        <v>563</v>
+        <v>544</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4540,16 +4465,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D115" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="E115" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F115" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4560,16 +4485,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E116" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F116" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4580,16 +4505,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D117" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E117" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F117" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4600,16 +4525,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D118" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="E118" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F118" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4620,16 +4545,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D119" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E119" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F119" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4640,16 +4565,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D120" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="E120" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F120" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4660,16 +4585,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D121" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="E121" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F121" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4680,16 +4605,16 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D122" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="E122" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F122" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4700,16 +4625,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D123" t="s">
-        <v>427</v>
+        <v>378</v>
       </c>
       <c r="E123" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F123" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4720,16 +4645,16 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D124" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="E124" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F124" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4740,16 +4665,16 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D125" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="E125" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F125" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4760,16 +4685,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D126" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="E126" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F126" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4780,16 +4705,16 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D127" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E127" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F127" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4800,16 +4725,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D128" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="E128" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F128" t="s">
-        <v>577</v>
+        <v>558</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4820,16 +4745,16 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D129" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="E129" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F129" t="s">
-        <v>578</v>
+        <v>559</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4840,16 +4765,16 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D130" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="E130" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F130" t="s">
-        <v>579</v>
+        <v>560</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4860,16 +4785,16 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D131" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="E131" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F131" t="s">
-        <v>580</v>
+        <v>561</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4880,16 +4805,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D132" t="s">
-        <v>433</v>
+        <v>360</v>
       </c>
       <c r="E132" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F132" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4900,16 +4825,16 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D133" t="s">
-        <v>434</v>
+        <v>358</v>
       </c>
       <c r="E133" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F133" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4920,16 +4845,16 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D134" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
       <c r="E134" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F134" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4940,16 +4865,16 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D135" t="s">
-        <v>384</v>
+        <v>358</v>
       </c>
       <c r="E135" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F135" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4960,16 +4885,16 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D136" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="E136" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F136" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4980,16 +4905,16 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D137" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E137" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F137" t="s">
-        <v>586</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5000,16 +4925,16 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D138" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="E138" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F138" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5020,16 +4945,16 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D139" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E139" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F139" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5040,16 +4965,16 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D140" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="E140" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F140" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5060,16 +4985,16 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D141" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="E141" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F141" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5080,16 +5005,16 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D142" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E142" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F142" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5100,16 +5025,16 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D143" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E143" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F143" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5120,16 +5045,16 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D144" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="E144" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F144" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5140,16 +5065,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D145" t="s">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="E145" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F145" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5160,16 +5085,16 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D146" t="s">
-        <v>423</v>
+        <v>367</v>
       </c>
       <c r="E146" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F146" t="s">
-        <v>595</v>
+        <v>576</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5180,16 +5105,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D147" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E147" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F147" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5200,16 +5125,16 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D148" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="E148" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F148" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5220,16 +5145,16 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D149" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
       <c r="E149" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F149" t="s">
-        <v>598</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5240,16 +5165,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D150" t="s">
-        <v>438</v>
+        <v>358</v>
       </c>
       <c r="E150" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F150" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5260,16 +5185,16 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D151" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
       <c r="E151" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F151" t="s">
-        <v>600</v>
+        <v>581</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5280,16 +5205,16 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D152" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="E152" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F152" t="s">
-        <v>601</v>
+        <v>582</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5300,16 +5225,16 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D153" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="E153" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F153" t="s">
-        <v>602</v>
+        <v>583</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5320,16 +5245,16 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D154" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="E154" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F154" t="s">
-        <v>603</v>
+        <v>584</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5340,16 +5265,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D155" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="E155" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F155" t="s">
-        <v>604</v>
+        <v>585</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5360,16 +5285,16 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D156" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E156" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F156" t="s">
-        <v>605</v>
+        <v>586</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5380,16 +5305,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D157" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E157" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F157" t="s">
-        <v>606</v>
+        <v>587</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5400,16 +5325,16 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D158" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E158" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F158" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5420,16 +5345,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D159" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E159" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F159" t="s">
-        <v>608</v>
+        <v>589</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5440,16 +5365,16 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D160" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="E160" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F160" t="s">
-        <v>609</v>
+        <v>590</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5460,16 +5385,16 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D161" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E161" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F161" t="s">
-        <v>610</v>
+        <v>591</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5480,16 +5405,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D162" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="E162" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F162" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5500,16 +5425,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D163" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E163" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F163" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5520,16 +5445,16 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D164" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="E164" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F164" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5540,16 +5465,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D165" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="E165" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F165" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5560,16 +5485,16 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D166" t="s">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="E166" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F166" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5580,16 +5505,16 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D167" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="E167" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="F167" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5600,16 +5525,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D168" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="E168" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F168" t="s">
-        <v>617</v>
+        <v>598</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5620,16 +5545,16 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D169" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="E169" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F169" t="s">
-        <v>618</v>
+        <v>599</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5640,16 +5565,16 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D170" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E170" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F170" t="s">
-        <v>619</v>
+        <v>600</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5660,16 +5585,16 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D171" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
       <c r="E171" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="F171" t="s">
-        <v>620</v>
+        <v>601</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5680,156 +5605,16 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D172" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E172" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="F172" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>176</v>
-      </c>
-      <c r="C173" t="s">
-        <v>354</v>
-      </c>
-      <c r="D173" t="s">
-        <v>447</v>
-      </c>
-      <c r="E173" t="s">
-        <v>450</v>
-      </c>
-      <c r="F173" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>177</v>
-      </c>
-      <c r="C174" t="s">
-        <v>355</v>
-      </c>
-      <c r="D174" t="s">
-        <v>437</v>
-      </c>
-      <c r="E174" t="s">
-        <v>450</v>
-      </c>
-      <c r="F174" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>178</v>
-      </c>
-      <c r="C175" t="s">
-        <v>356</v>
-      </c>
-      <c r="D175" t="s">
-        <v>414</v>
-      </c>
-      <c r="E175" t="s">
-        <v>450</v>
-      </c>
-      <c r="F175" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>179</v>
-      </c>
-      <c r="C176" t="s">
-        <v>357</v>
-      </c>
-      <c r="D176" t="s">
-        <v>448</v>
-      </c>
-      <c r="E176" t="s">
-        <v>450</v>
-      </c>
-      <c r="F176" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>180</v>
-      </c>
-      <c r="C177" t="s">
-        <v>358</v>
-      </c>
-      <c r="D177" t="s">
-        <v>378</v>
-      </c>
-      <c r="E177" t="s">
-        <v>450</v>
-      </c>
-      <c r="F177" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>181</v>
-      </c>
-      <c r="C178" t="s">
-        <v>359</v>
-      </c>
-      <c r="D178" t="s">
-        <v>388</v>
-      </c>
-      <c r="E178" t="s">
-        <v>449</v>
-      </c>
-      <c r="F178" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>182</v>
-      </c>
-      <c r="C179" t="s">
-        <v>360</v>
-      </c>
-      <c r="D179" t="s">
-        <v>383</v>
-      </c>
-      <c r="E179" t="s">
-        <v>449</v>
-      </c>
-      <c r="F179" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/Results/FOOD.xlsx
+++ b/Results/FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="618">
   <si>
     <t>id</t>
   </si>
@@ -70,12 +70,18 @@
     <t>1062641:2</t>
   </si>
   <si>
+    <t>1064477:0</t>
+  </si>
+  <si>
     <t>1064477:2</t>
   </si>
   <si>
     <t>1064477:3</t>
   </si>
   <si>
+    <t>1064477:4</t>
+  </si>
+  <si>
     <t>1074868:4</t>
   </si>
   <si>
@@ -187,6 +193,9 @@
     <t>1189674:1</t>
   </si>
   <si>
+    <t>1189674:2</t>
+  </si>
+  <si>
     <t>1189674:4</t>
   </si>
   <si>
@@ -217,9 +226,6 @@
     <t>1230993:4</t>
   </si>
   <si>
-    <t>1232468:0</t>
-  </si>
-  <si>
     <t>1241906:0</t>
   </si>
   <si>
@@ -229,6 +235,9 @@
     <t>1253117:2</t>
   </si>
   <si>
+    <t>1253117:5</t>
+  </si>
+  <si>
     <t>1256373:0</t>
   </si>
   <si>
@@ -394,6 +403,9 @@
     <t>1404042:4</t>
   </si>
   <si>
+    <t>1410878:1</t>
+  </si>
+  <si>
     <t>1410878:2</t>
   </si>
   <si>
@@ -439,6 +451,9 @@
     <t>1671113:1</t>
   </si>
   <si>
+    <t>1748813:1</t>
+  </si>
+  <si>
     <t>404464:3</t>
   </si>
   <si>
@@ -526,9 +541,6 @@
     <t>BG#5:7</t>
   </si>
   <si>
-    <t>BG#8:3</t>
-  </si>
-  <si>
     <t>Z#6:5</t>
   </si>
   <si>
@@ -583,12 +595,18 @@
     <t>food is great.</t>
   </si>
   <si>
+    <t>i tend to judge a sushi restaurant by its sea urchin, which was heavenly at sushi rose.</t>
+  </si>
+  <si>
     <t>the sushi seemed pretty fresh and was adequately proportioned.</t>
   </si>
   <si>
     <t>the rice to fish ration was also good--they didn't try to overpack the rice.</t>
   </si>
   <si>
+    <t>we took advanatage of the half price sushi deal on saturday so it was well worth it.</t>
+  </si>
+  <si>
     <t>the food was well prepared and the service impecable.</t>
   </si>
   <si>
@@ -700,6 +718,9 @@
     <t>the food was amazing, and the service was prompt and helpful, but not over-bearing or rushed.</t>
   </si>
   <si>
+    <t>the steak tartare is a great bet, they fix it for you at the table.</t>
+  </si>
+  <si>
     <t>great wine selection, gigondas is worth the price, and the house champagne is a great value.</t>
   </si>
   <si>
@@ -730,9 +751,6 @@
     <t>the food was good too.</t>
   </si>
   <si>
-    <t>the tuna and wasabe potatoes are excellent.</t>
-  </si>
-  <si>
     <t>great service, great food.</t>
   </si>
   <si>
@@ -742,6 +760,9 @@
     <t>two complaints- their appetizer selection stinks, it would be nice to get some mozzarella sticks on the menu.</t>
   </si>
   <si>
+    <t>wait staff is blantently unappreciative of your business but its the best pie on the uws!</t>
+  </si>
+  <si>
     <t>by far the best salad i have had in a fast food restaurant.</t>
   </si>
   <si>
@@ -907,6 +928,9 @@
     <t>someone else recommended the dessert - we also left that.</t>
   </si>
   <si>
+    <t>i've never had bad service and the fish is fresh and delicious.</t>
+  </si>
+  <si>
     <t>their tuna tartar appetizer is to die for.</t>
   </si>
   <si>
@@ -952,6 +976,9 @@
     <t>the food is great and reasonably priced.</t>
   </si>
   <si>
+    <t>all of the pizzas are terrific and the price is even better!</t>
+  </si>
+  <si>
     <t>i expected quite a bit more from such an expensive menu.</t>
   </si>
   <si>
@@ -1039,9 +1066,6 @@
     <t>but if you're prepared to spend some $ and remember to ask if something they offer is complimentary, then this is the place to go for indian food</t>
   </si>
   <si>
-    <t>the lunch buffet is expensive but is deff worth it.</t>
-  </si>
-  <si>
     <t>my party had the bbe $29 fixe prix menu, which was such a wonderful deal since it also came with a flight of sake!</t>
   </si>
   <si>
@@ -1093,6 +1117,9 @@
     <t>great</t>
   </si>
   <si>
+    <t>heavenly</t>
+  </si>
+  <si>
     <t>pretty</t>
   </si>
   <si>
@@ -1120,9 +1147,15 @@
     <t>overpriced</t>
   </si>
   <si>
+    <t>fancy</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>unusual</t>
+  </si>
+  <si>
     <t>fried</t>
   </si>
   <si>
@@ -1144,6 +1177,9 @@
     <t>get</t>
   </si>
   <si>
+    <t>variety</t>
+  </si>
+  <si>
     <t>its</t>
   </si>
   <si>
@@ -1153,7 +1189,7 @@
     <t>die</t>
   </si>
   <si>
-    <t>spicy</t>
+    <t>sure</t>
   </si>
   <si>
     <t>fairly</t>
@@ -1162,78 +1198,75 @@
     <t>beautifully</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>freeze</t>
+  </si>
+  <si>
+    <t>heaven</t>
+  </si>
+  <si>
+    <t>overlooked</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>rough</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>messy</t>
+  </si>
+  <si>
+    <t>delicous</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>efficiently</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>authentic</t>
+  </si>
+  <si>
+    <t>terrific</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>freeze</t>
-  </si>
-  <si>
-    <t>heaven</t>
-  </si>
-  <si>
-    <t>overlooked</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>rough</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>messy</t>
-  </si>
-  <si>
-    <t>delicous</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>organic</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>efficiently</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>authentic</t>
-  </si>
-  <si>
-    <t>terrific</t>
-  </si>
-  <si>
     <t>superb</t>
   </si>
   <si>
@@ -1246,9 +1279,6 @@
     <t>redeeming</t>
   </si>
   <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>overdone</t>
   </si>
   <si>
@@ -1297,6 +1327,9 @@
     <t>expect</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>inedible</t>
   </si>
   <si>
@@ -1351,12 +1384,18 @@
     <t>['food', 'great']</t>
   </si>
   <si>
+    <t>['tend', 'judge', 'sushi', 'restaurant', 'sea', 'urchin', 'heavenly', 'sushi', 'rose']</t>
+  </si>
+  <si>
     <t>['sushi', 'seemed', 'pretty', 'fresh', 'adequately', 'proportioned']</t>
   </si>
   <si>
     <t>['rice', 'fish', 'ration', 'also', 'goodthey', 'try', 'overpack', 'rice']</t>
   </si>
   <si>
+    <t>['took', 'advanatage', 'half', 'price', 'sushi', 'deal', 'saturday', 'well', 'worth']</t>
+  </si>
+  <si>
     <t>['food', 'well', 'prepared', 'service', 'impecable']</t>
   </si>
   <si>
@@ -1468,6 +1507,9 @@
     <t>['food', 'amazing', 'service', 'prompt', 'helpful', 'overbearing', 'rushed']</t>
   </si>
   <si>
+    <t>['steak', 'tartare', 'great', 'bet', 'fix', 'table']</t>
+  </si>
+  <si>
     <t>['great', 'wine', 'selection', 'gigondas', 'worth', 'price', 'house', 'champagne', 'great', 'value']</t>
   </si>
   <si>
@@ -1498,9 +1540,6 @@
     <t>['food', 'good']</t>
   </si>
   <si>
-    <t>['tuna', 'wasabe', 'potato', 'excellent']</t>
-  </si>
-  <si>
     <t>['great', 'service', 'great', 'food']</t>
   </si>
   <si>
@@ -1510,6 +1549,9 @@
     <t>['two', 'complaint', 'appetizer', 'selection', 'stink', 'would', 'nice', 'get', 'mozzarella', 'stick', 'menu']</t>
   </si>
   <si>
+    <t>['wait', 'staff', 'blantently', 'unappreciative', 'business', 'best', 'pie', 'uws']</t>
+  </si>
+  <si>
     <t>['far', 'best', 'salad', 'fast', 'food', 'restaurant']</t>
   </si>
   <si>
@@ -1675,6 +1717,9 @@
     <t>['someone', 'else', 'recommended', 'dessert', 'also', 'left']</t>
   </si>
   <si>
+    <t>['ive', 'never', 'bad', 'service', 'fish', 'fresh', 'delicious']</t>
+  </si>
+  <si>
     <t>['tuna', 'tartar', 'appetizer', 'die']</t>
   </si>
   <si>
@@ -1720,6 +1765,9 @@
     <t>['food', 'great', 'reasonably', 'priced']</t>
   </si>
   <si>
+    <t>['pizza', 'terrific', 'price', 'even', 'better']</t>
+  </si>
+  <si>
     <t>['expected', 'quite', 'bit', 'expensive', 'menu']</t>
   </si>
   <si>
@@ -1805,9 +1853,6 @@
   </si>
   <si>
     <t>['prepared', 'spend', 'remember', 'ask', 'something', 'offer', 'complimentary', 'place', 'go', 'indian', 'food']</t>
-  </si>
-  <si>
-    <t>['lunch', 'buffet', 'expensive', 'deff', 'worth']</t>
   </si>
   <si>
     <t>['party', 'bbe', '', 'fixe', 'prix', 'menu', 'wonderful', 'deal', 'since', 'also', 'came', 'flight', 'sake']</t>
@@ -2180,7 +2225,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2211,16 +2256,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F2" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2231,16 +2276,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F3" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2251,16 +2296,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E4" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F4" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2271,16 +2316,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="E5" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F5" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2291,16 +2336,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F6" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2311,16 +2356,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="E7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2331,16 +2376,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="E8" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F8" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2351,16 +2396,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="E9" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F9" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2371,16 +2416,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2391,16 +2436,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E11" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F11" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2411,16 +2456,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F12" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2431,16 +2476,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D13" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E13" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F13" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2451,16 +2496,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E14" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F14" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2471,16 +2516,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D15" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="E15" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F15" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2491,16 +2536,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D16" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E16" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F16" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2511,16 +2556,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E17" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F17" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2531,16 +2576,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D18" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="E18" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F18" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2551,16 +2596,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E19" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F19" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2571,16 +2616,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D20" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="E20" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F20" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2591,16 +2636,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D21" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="E21" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F21" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2611,16 +2656,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E22" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F22" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2631,16 +2676,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E23" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F23" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2651,16 +2696,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E24" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F24" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2671,16 +2716,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="E25" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F25" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2691,16 +2736,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D26" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E26" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F26" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2711,16 +2756,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E27" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F27" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2731,16 +2776,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="E28" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F28" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2751,16 +2796,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="E29" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F29" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2771,16 +2816,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D30" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="E30" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F30" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2791,16 +2836,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="E31" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F31" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2811,16 +2856,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D32" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="E32" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F32" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2831,16 +2876,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D33" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="E33" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F33" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2851,16 +2896,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D34" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E34" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F34" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2871,16 +2916,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D35" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E35" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F35" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2891,16 +2936,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D36" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="E36" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F36" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2911,16 +2956,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E37" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F37" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2931,16 +2976,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D38" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E38" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F38" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2951,16 +2996,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D39" t="s">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="E39" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F39" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2971,16 +3016,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D40" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E40" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F40" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2991,16 +3036,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E41" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F41" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3011,16 +3056,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F42" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3031,16 +3076,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D43" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E43" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F43" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3051,16 +3096,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D44" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="E44" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F44" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3071,16 +3116,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D45" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="E45" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F45" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3091,16 +3136,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D46" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="E46" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F46" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3111,16 +3156,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D47" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E47" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F47" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3131,16 +3176,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D48" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="E48" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F48" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3151,16 +3196,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D49" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="E49" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F49" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3171,16 +3216,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D50" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="E50" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F50" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3191,16 +3236,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D51" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="E51" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F51" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3211,16 +3256,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="E52" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F52" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3231,16 +3276,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D53" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="E53" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F53" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3251,16 +3296,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D54" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="E54" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F54" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3271,16 +3316,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D55" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E55" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F55" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3291,16 +3336,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D56" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E56" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F56" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3311,16 +3356,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D57" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="E57" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F57" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3331,16 +3376,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D58" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="E58" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F58" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3351,16 +3396,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D59" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="E59" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F59" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3371,16 +3416,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="E60" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F60" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3391,16 +3436,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D61" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E61" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F61" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3411,16 +3456,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D62" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="E62" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F62" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3431,16 +3476,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D63" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="E63" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F63" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3451,16 +3496,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D64" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="E64" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F64" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3471,16 +3516,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D65" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F65" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3491,16 +3536,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D66" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E66" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F66" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3511,16 +3556,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D67" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E67" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F67" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3531,16 +3576,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D68" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E68" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F68" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3551,16 +3596,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D69" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E69" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F69" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3571,13 +3616,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>244</v>
+        <v>248</v>
+      </c>
+      <c r="D70" t="s">
+        <v>378</v>
       </c>
       <c r="E70" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F70" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3588,16 +3636,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D71" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E71" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F71" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3608,16 +3656,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D72" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="E72" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F72" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3628,16 +3676,13 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>247</v>
-      </c>
-      <c r="D73" t="s">
-        <v>389</v>
+        <v>251</v>
       </c>
       <c r="E73" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F73" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3648,16 +3693,16 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D74" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E74" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F74" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3668,16 +3713,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D75" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="E75" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F75" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3688,16 +3733,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D76" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="E76" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F76" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3708,16 +3753,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D77" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="E77" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F77" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3728,16 +3773,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D78" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="E78" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F78" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3748,16 +3793,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D79" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="E79" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F79" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3768,16 +3813,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D80" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="E80" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F80" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3788,16 +3833,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D81" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="E81" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F81" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3808,16 +3853,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D82" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="E82" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F82" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3828,16 +3873,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D83" t="s">
-        <v>354</v>
+        <v>405</v>
       </c>
       <c r="E83" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F83" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3848,16 +3893,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D84" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="E84" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F84" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3868,16 +3913,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D85" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E85" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F85" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3888,16 +3933,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D86" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="E86" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F86" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3908,16 +3953,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D87" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="E87" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F87" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3928,16 +3973,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D88" t="s">
-        <v>349</v>
+        <v>382</v>
       </c>
       <c r="E88" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F88" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3948,13 +3993,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
+        <v>267</v>
+      </c>
+      <c r="D89" t="s">
+        <v>368</v>
       </c>
       <c r="E89" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F89" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3965,16 +4013,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D90" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="E90" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F90" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3985,16 +4033,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D91" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="E91" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F91" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4005,16 +4053,13 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>266</v>
-      </c>
-      <c r="D92" t="s">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F92" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4025,16 +4070,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D93" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="E93" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F93" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4045,16 +4090,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D94" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="E94" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F94" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4065,16 +4110,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D95" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="E95" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F95" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4085,16 +4130,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E96" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F96" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4105,16 +4150,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D97" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E97" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F97" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4125,16 +4170,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D98" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="E98" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F98" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4145,16 +4190,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D99" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="E99" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F99" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4165,16 +4210,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D100" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="E100" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F100" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4185,16 +4230,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D101" t="s">
-        <v>392</v>
+        <v>366</v>
       </c>
       <c r="E101" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F101" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4205,16 +4250,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D102" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E102" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F102" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4225,16 +4270,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D103" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="E103" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F103" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4245,16 +4290,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D104" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="E104" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F104" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4265,16 +4310,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D105" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E105" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F105" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4285,16 +4330,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D106" t="s">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="E106" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F106" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4305,16 +4350,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D107" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="E107" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F107" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4325,16 +4370,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D108" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="E108" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F108" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4345,16 +4390,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D109" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
       <c r="E109" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F109" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4365,16 +4410,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D110" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="E110" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F110" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4385,16 +4430,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D111" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="E111" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F111" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4405,16 +4450,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D112" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="E112" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F112" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4425,16 +4470,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D113" t="s">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="E113" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F113" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4445,16 +4490,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D114" t="s">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="E114" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F114" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4465,16 +4510,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D115" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="E115" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F115" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4485,16 +4530,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D116" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="E116" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F116" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4505,16 +4550,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D117" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="E117" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F117" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4525,16 +4570,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D118" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="E118" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F118" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4545,16 +4590,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D119" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="E119" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F119" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4565,16 +4610,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D120" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="E120" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F120" t="s">
-        <v>550</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4585,16 +4630,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D121" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E121" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F121" t="s">
-        <v>551</v>
+        <v>562</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4605,16 +4650,16 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D122" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E122" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F122" t="s">
-        <v>552</v>
+        <v>563</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4625,16 +4670,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D123" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E123" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F123" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4645,16 +4690,16 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D124" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="E124" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F124" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4665,16 +4710,16 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D125" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="E125" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F125" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4685,16 +4730,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D126" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E126" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F126" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4705,16 +4750,16 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D127" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="E127" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F127" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4725,16 +4770,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D128" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="E128" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F128" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4745,16 +4790,16 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D129" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="E129" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F129" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4765,16 +4810,16 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D130" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="E130" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F130" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4785,16 +4830,16 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D131" t="s">
-        <v>364</v>
+        <v>424</v>
       </c>
       <c r="E131" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F131" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4805,16 +4850,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D132" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="E132" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F132" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4825,16 +4870,16 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D133" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="E133" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F133" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4845,16 +4890,16 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D134" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="E134" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F134" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4865,16 +4910,16 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D135" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="E135" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F135" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4885,16 +4930,16 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D136" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="E136" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F136" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4905,16 +4950,16 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D137" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E137" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F137" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4925,16 +4970,16 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D138" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="E138" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F138" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4945,16 +4990,16 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D139" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E139" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F139" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4965,16 +5010,16 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D140" t="s">
-        <v>358</v>
+        <v>427</v>
       </c>
       <c r="E140" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F140" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4985,16 +5030,16 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D141" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E141" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F141" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5005,16 +5050,16 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D142" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="E142" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F142" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5025,16 +5070,16 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D143" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="E143" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F143" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5045,16 +5090,16 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D144" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="E144" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F144" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5065,16 +5110,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D145" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="E145" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F145" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5085,16 +5130,16 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D146" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E146" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F146" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5105,16 +5150,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D147" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E147" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F147" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5125,16 +5170,16 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D148" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="E148" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F148" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5145,16 +5190,16 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D149" t="s">
-        <v>349</v>
+        <v>430</v>
       </c>
       <c r="E149" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F149" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5165,16 +5210,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D150" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="E150" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F150" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5185,16 +5230,16 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D151" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="E151" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F151" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5205,16 +5250,16 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D152" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
       <c r="E152" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F152" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5225,16 +5270,16 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D153" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="E153" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F153" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5245,16 +5290,16 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D154" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="E154" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F154" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5265,16 +5310,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D155" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="E155" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F155" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5285,16 +5330,16 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D156" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="E156" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F156" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5305,16 +5350,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D157" t="s">
-        <v>382</v>
+        <v>431</v>
       </c>
       <c r="E157" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F157" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5325,16 +5370,16 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D158" t="s">
-        <v>371</v>
+        <v>432</v>
       </c>
       <c r="E158" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F158" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5345,16 +5390,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D159" t="s">
-        <v>360</v>
+        <v>433</v>
       </c>
       <c r="E159" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F159" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5365,16 +5410,16 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D160" t="s">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="E160" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F160" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5385,16 +5430,16 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D161" t="s">
-        <v>425</v>
+        <v>369</v>
       </c>
       <c r="E161" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F161" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5405,16 +5450,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D162" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E162" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F162" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5425,16 +5470,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D163" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="E163" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="F163" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5445,16 +5490,16 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D164" t="s">
-        <v>427</v>
+        <v>369</v>
       </c>
       <c r="E164" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F164" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5465,16 +5510,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D165" t="s">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="E165" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F165" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5485,16 +5530,16 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D166" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="E166" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F166" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5505,16 +5550,16 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D167" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="E167" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F167" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5525,16 +5570,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D168" t="s">
-        <v>397</v>
+        <v>437</v>
       </c>
       <c r="E168" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F168" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5545,16 +5590,16 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D169" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="E169" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="F169" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5565,16 +5610,16 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D170" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="E170" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F170" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5585,16 +5630,16 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D171" t="s">
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="E171" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F171" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5605,16 +5650,96 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D172" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="E172" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F172" t="s">
-        <v>602</v>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173" t="s">
+        <v>351</v>
+      </c>
+      <c r="D173" t="s">
+        <v>440</v>
+      </c>
+      <c r="E173" t="s">
+        <v>442</v>
+      </c>
+      <c r="F173" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174" t="s">
+        <v>352</v>
+      </c>
+      <c r="D174" t="s">
+        <v>369</v>
+      </c>
+      <c r="E174" t="s">
+        <v>442</v>
+      </c>
+      <c r="F174" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>178</v>
+      </c>
+      <c r="C175" t="s">
+        <v>353</v>
+      </c>
+      <c r="D175" t="s">
+        <v>382</v>
+      </c>
+      <c r="E175" t="s">
+        <v>441</v>
+      </c>
+      <c r="F175" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>179</v>
+      </c>
+      <c r="C176" t="s">
+        <v>354</v>
+      </c>
+      <c r="D176" t="s">
+        <v>376</v>
+      </c>
+      <c r="E176" t="s">
+        <v>441</v>
+      </c>
+      <c r="F176" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/Results/FOOD.xlsx
+++ b/Results/FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="626">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,9 @@
     <t>1016296:4</t>
   </si>
   <si>
+    <t>1032695:1</t>
+  </si>
+  <si>
     <t>1032695:2</t>
   </si>
   <si>
@@ -301,9 +304,6 @@
     <t>1318537:0</t>
   </si>
   <si>
-    <t>1318537:4</t>
-  </si>
-  <si>
     <t>1328078:3</t>
   </si>
   <si>
@@ -409,6 +409,12 @@
     <t>1410878:2</t>
   </si>
   <si>
+    <t>1413697:0</t>
+  </si>
+  <si>
+    <t>1417496:0</t>
+  </si>
+  <si>
     <t>1439875:3</t>
   </si>
   <si>
@@ -571,6 +577,9 @@
     <t>chow fun was dry; pork shu mai was more than usually greasy and had to share a table with loud and rude family.</t>
   </si>
   <si>
+    <t>everything is always cooked to perfection, the service is excellent, the decor cool and understated.</t>
+  </si>
+  <si>
     <t>i had the duck breast special on my last visit and it was incredible.</t>
   </si>
   <si>
@@ -826,9 +835,6 @@
     <t>fresh restaurant was amazing........ food was delicious and of course fresh.</t>
   </si>
   <si>
-    <t>hats off to the chef.</t>
-  </si>
-  <si>
     <t>the salads are delicious, both refreshing and very spicy.</t>
   </si>
   <si>
@@ -934,6 +940,12 @@
     <t>their tuna tartar appetizer is to die for.</t>
   </si>
   <si>
+    <t>i come from a family of pizzeria owners, and i'm almost ashamed to say that the pizza in fornino's blows my families receipies away.</t>
+  </si>
+  <si>
+    <t>a restaurant that doesn't try to do anything except serve great food with great service in a pleasant atmosphere.</t>
+  </si>
+  <si>
     <t>the food can get pricey but the prixe fixe tasting menu is the greatest food for a good price and they cater the food to any food allergies or food you don't like.</t>
   </si>
   <si>
@@ -1093,7 +1105,10 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>greasy</t>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>perfection</t>
   </si>
   <si>
     <t>incredible</t>
@@ -1147,9 +1162,6 @@
     <t>overpriced</t>
   </si>
   <si>
-    <t>fancy</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -1159,9 +1171,6 @@
     <t>fried</t>
   </si>
   <si>
-    <t>japanese</t>
-  </si>
-  <si>
     <t>bland</t>
   </si>
   <si>
@@ -1225,21 +1234,24 @@
     <t>rough</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>messy</t>
+  </si>
+  <si>
+    <t>delicous</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>delicious</t>
   </si>
   <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>messy</t>
-  </si>
-  <si>
-    <t>delicous</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>refreshing</t>
   </si>
   <si>
@@ -1249,6 +1261,9 @@
     <t>limited</t>
   </si>
   <si>
+    <t>timely</t>
+  </si>
+  <si>
     <t>efficiently</t>
   </si>
   <si>
@@ -1285,6 +1300,9 @@
     <t>recommended</t>
   </si>
   <si>
+    <t>ashamed</t>
+  </si>
+  <si>
     <t>mortal</t>
   </si>
   <si>
@@ -1360,6 +1378,9 @@
     <t>['chow', 'fun', 'dry', 'pork', 'shu', 'mai', 'usually', 'greasy', 'share', 'table', 'loud', 'rude', 'family']</t>
   </si>
   <si>
+    <t>['everything', 'always', 'cooked', 'perfection', 'service', 'excellent', 'decor', 'cool', 'understated']</t>
+  </si>
+  <si>
     <t>['duck', 'breast', 'special', 'last', 'visit', 'incredible']</t>
   </si>
   <si>
@@ -1615,9 +1636,6 @@
     <t>['fresh', 'restaurant', 'amazing', 'food', 'delicious', 'course', 'fresh']</t>
   </si>
   <si>
-    <t>['hat', 'chef']</t>
-  </si>
-  <si>
     <t>['salad', 'delicious', 'refreshing', 'spicy']</t>
   </si>
   <si>
@@ -1721,6 +1739,12 @@
   </si>
   <si>
     <t>['tuna', 'tartar', 'appetizer', 'die']</t>
+  </si>
+  <si>
+    <t>['come', 'family', 'pizzeria', 'owner', 'im', 'almost', 'ashamed', 'say', 'pizza', 'forninos', 'blow', 'family', 'receipies', 'away']</t>
+  </si>
+  <si>
+    <t>['restaurant', 'try', 'anything', 'except', 'serve', 'great', 'food', 'great', 'service', 'pleasant', 'atmosphere']</t>
   </si>
   <si>
     <t>['food', 'get', 'pricey', 'prixe', 'fixe', 'tasting', 'menu', 'greatest', 'food', 'good', 'price', 'cater', 'food', 'food', 'allergy', 'food', 'like']</t>
@@ -2225,7 +2249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2256,16 +2280,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2276,16 +2300,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F3" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2296,16 +2320,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E4" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F4" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2316,16 +2340,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="E5" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F5" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2336,16 +2360,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E6" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F6" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2356,16 +2380,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2376,16 +2400,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E8" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2396,16 +2420,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E9" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F9" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2416,16 +2440,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E10" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F10" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2436,16 +2460,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E11" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F11" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2456,16 +2480,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E12" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F12" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2476,16 +2500,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E13" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F13" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2496,16 +2520,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D14" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F14" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2516,16 +2540,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D15" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E15" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F15" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2536,16 +2560,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D16" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E16" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F16" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2556,16 +2580,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D17" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E17" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F17" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2576,16 +2600,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D18" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E18" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F18" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2596,16 +2620,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F19" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2616,16 +2640,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E20" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F20" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2636,16 +2660,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E21" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F21" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2656,16 +2680,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D22" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E22" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F22" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2676,16 +2700,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E23" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F23" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2696,16 +2720,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E24" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F24" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2716,16 +2740,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E25" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F25" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2736,16 +2760,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E26" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F26" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2756,16 +2780,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="E27" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F27" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2776,16 +2800,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E28" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F28" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2796,16 +2820,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="E29" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F29" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2816,16 +2840,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E30" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F30" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2836,16 +2860,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E31" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F31" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2856,16 +2880,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="E32" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F32" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2876,16 +2900,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D33" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E33" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F33" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2896,16 +2920,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="E34" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F34" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2916,16 +2940,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E35" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F35" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2936,16 +2960,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E36" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F36" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2956,16 +2980,13 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>215</v>
-      </c>
-      <c r="D37" t="s">
-        <v>369</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F37" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2976,16 +2997,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D38" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E38" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F38" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2996,16 +3017,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="E39" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F39" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3016,16 +3037,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="E40" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F40" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3036,16 +3057,16 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D41" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E41" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F41" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3056,16 +3077,16 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E42" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F42" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3076,16 +3097,16 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D43" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E43" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F43" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3096,16 +3117,16 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D44" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E44" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F44" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3116,16 +3137,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E45" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F45" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3136,16 +3157,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="E46" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F46" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3156,16 +3177,16 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D47" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E47" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F47" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3176,16 +3197,16 @@
         <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E48" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F48" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3196,16 +3217,16 @@
         <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E49" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F49" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3216,16 +3237,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="E50" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F50" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3236,16 +3257,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D51" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E51" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F51" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3256,16 +3277,16 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E52" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F52" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3276,16 +3297,16 @@
         <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D53" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E53" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F53" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3296,16 +3317,16 @@
         <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D54" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E54" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F54" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3316,16 +3337,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="E55" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F55" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3336,16 +3357,16 @@
         <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D56" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E56" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F56" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3356,16 +3377,16 @@
         <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D57" t="s">
         <v>371</v>
       </c>
       <c r="E57" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F57" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3376,16 +3397,16 @@
         <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D58" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="E58" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F58" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3396,16 +3417,16 @@
         <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D59" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="E59" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F59" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3416,16 +3437,16 @@
         <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="E60" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F60" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3436,16 +3457,16 @@
         <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D61" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="E61" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F61" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3456,16 +3477,16 @@
         <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D62" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E62" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F62" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3476,16 +3497,16 @@
         <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D63" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E63" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F63" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3496,16 +3517,16 @@
         <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D64" t="s">
         <v>393</v>
       </c>
       <c r="E64" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F64" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3516,16 +3537,16 @@
         <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D65" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="E65" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F65" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3536,16 +3557,16 @@
         <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D66" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E66" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F66" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3556,16 +3577,16 @@
         <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D67" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E67" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F67" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3576,16 +3597,16 @@
         <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D68" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="E68" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F68" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3596,16 +3617,16 @@
         <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D69" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E69" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F69" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3616,16 +3637,16 @@
         <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D70" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="E70" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F70" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3636,16 +3657,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D71" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E71" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F71" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3656,16 +3677,16 @@
         <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D72" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E72" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F72" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3676,13 +3697,16 @@
         <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+      <c r="D73" t="s">
+        <v>400</v>
       </c>
       <c r="E73" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F73" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3693,16 +3717,13 @@
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
-      </c>
-      <c r="D74" t="s">
-        <v>398</v>
+        <v>254</v>
       </c>
       <c r="E74" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F74" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3713,16 +3734,16 @@
         <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E75" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F75" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3733,16 +3754,16 @@
         <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D76" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E76" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F76" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3753,16 +3774,16 @@
         <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D77" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E77" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F77" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3773,16 +3794,16 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="E78" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F78" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3793,16 +3814,16 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E79" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F79" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3813,16 +3834,16 @@
         <v>83</v>
       </c>
       <c r="C80" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D80" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="E80" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F80" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3833,16 +3854,16 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D81" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E81" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F81" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3853,16 +3874,16 @@
         <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D82" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E82" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F82" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3873,16 +3894,16 @@
         <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D83" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E83" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F83" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3893,16 +3914,16 @@
         <v>87</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D84" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E84" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F84" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3913,16 +3934,16 @@
         <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D85" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="E85" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F85" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3933,16 +3954,16 @@
         <v>89</v>
       </c>
       <c r="C86" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="E86" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F86" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3953,16 +3974,16 @@
         <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D87" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="E87" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F87" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3973,16 +3994,16 @@
         <v>91</v>
       </c>
       <c r="C88" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="E88" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F88" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3993,16 +4014,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D89" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="E89" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F89" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4013,16 +4034,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="E90" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F90" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4033,16 +4054,16 @@
         <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D91" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E91" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F91" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4053,13 +4074,16 @@
         <v>95</v>
       </c>
       <c r="C92" t="s">
-        <v>270</v>
+        <v>272</v>
+      </c>
+      <c r="D92" t="s">
+        <v>411</v>
       </c>
       <c r="E92" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F92" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4070,16 +4094,16 @@
         <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E93" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F93" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4090,16 +4114,16 @@
         <v>97</v>
       </c>
       <c r="C94" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D94" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E94" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F94" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4110,16 +4134,16 @@
         <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D95" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E95" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F95" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4130,16 +4154,16 @@
         <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D96" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E96" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F96" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4150,16 +4174,16 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D97" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E97" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F97" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4170,16 +4194,16 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D98" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E98" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F98" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4190,16 +4214,16 @@
         <v>102</v>
       </c>
       <c r="C99" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D99" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E99" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F99" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4210,16 +4234,16 @@
         <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E100" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F100" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4230,16 +4254,16 @@
         <v>104</v>
       </c>
       <c r="C101" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E101" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F101" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4250,16 +4274,16 @@
         <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D102" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E102" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F102" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4270,16 +4294,16 @@
         <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="E103" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F103" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4290,16 +4314,16 @@
         <v>107</v>
       </c>
       <c r="C104" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D104" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E104" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F104" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4310,16 +4334,16 @@
         <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="E105" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F105" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4330,16 +4354,16 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D106" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="E106" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F106" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4350,16 +4374,16 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D107" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E107" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F107" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4370,16 +4394,16 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D108" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E108" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F108" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4390,16 +4414,16 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D109" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E109" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F109" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4410,16 +4434,16 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D110" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="E110" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F110" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4430,16 +4454,16 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D111" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E111" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F111" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4450,16 +4474,16 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D112" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E112" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F112" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4470,16 +4494,16 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D113" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E113" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F113" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4490,16 +4514,16 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D114" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="E114" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F114" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4510,16 +4534,16 @@
         <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D115" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E115" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F115" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4530,16 +4554,16 @@
         <v>119</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D116" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E116" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F116" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4550,16 +4574,16 @@
         <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D117" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E117" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F117" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4570,16 +4594,16 @@
         <v>121</v>
       </c>
       <c r="C118" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D118" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E118" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F118" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4590,16 +4614,16 @@
         <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D119" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E119" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F119" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4610,16 +4634,16 @@
         <v>123</v>
       </c>
       <c r="C120" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D120" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E120" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F120" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4630,16 +4654,16 @@
         <v>124</v>
       </c>
       <c r="C121" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D121" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E121" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4650,16 +4674,16 @@
         <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D122" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E122" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F122" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4670,16 +4694,16 @@
         <v>126</v>
       </c>
       <c r="C123" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D123" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E123" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F123" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4690,16 +4714,16 @@
         <v>127</v>
       </c>
       <c r="C124" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D124" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E124" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F124" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4710,16 +4734,16 @@
         <v>128</v>
       </c>
       <c r="C125" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D125" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E125" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F125" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4730,16 +4754,16 @@
         <v>129</v>
       </c>
       <c r="C126" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D126" t="s">
-        <v>403</v>
+        <v>377</v>
       </c>
       <c r="E126" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F126" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4750,16 +4774,16 @@
         <v>130</v>
       </c>
       <c r="C127" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D127" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E127" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F127" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4770,16 +4794,16 @@
         <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D128" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="E128" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F128" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4790,16 +4814,16 @@
         <v>132</v>
       </c>
       <c r="C129" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D129" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="E129" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F129" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4810,16 +4834,16 @@
         <v>133</v>
       </c>
       <c r="C130" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D130" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="E130" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F130" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4830,16 +4854,16 @@
         <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D131" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="E131" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F131" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4850,16 +4874,16 @@
         <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D132" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="E132" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F132" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4870,16 +4894,16 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D133" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="E133" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F133" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4890,16 +4914,16 @@
         <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D134" t="s">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="E134" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F134" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4910,16 +4934,16 @@
         <v>138</v>
       </c>
       <c r="C135" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D135" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E135" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F135" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4930,16 +4954,16 @@
         <v>139</v>
       </c>
       <c r="C136" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="E136" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F136" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4950,16 +4974,16 @@
         <v>140</v>
       </c>
       <c r="C137" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D137" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="E137" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F137" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4970,16 +4994,16 @@
         <v>141</v>
       </c>
       <c r="C138" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D138" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
       <c r="E138" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F138" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4990,16 +5014,16 @@
         <v>142</v>
       </c>
       <c r="C139" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D139" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E139" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F139" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5010,16 +5034,16 @@
         <v>143</v>
       </c>
       <c r="C140" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D140" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="E140" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F140" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5030,16 +5054,16 @@
         <v>144</v>
       </c>
       <c r="C141" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D141" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E141" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F141" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5050,16 +5074,16 @@
         <v>145</v>
       </c>
       <c r="C142" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D142" t="s">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="E142" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F142" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5070,16 +5094,16 @@
         <v>146</v>
       </c>
       <c r="C143" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D143" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="E143" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F143" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5090,16 +5114,16 @@
         <v>147</v>
       </c>
       <c r="C144" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D144" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="E144" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F144" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5110,16 +5134,16 @@
         <v>148</v>
       </c>
       <c r="C145" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D145" t="s">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="E145" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F145" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5130,16 +5154,16 @@
         <v>149</v>
       </c>
       <c r="C146" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D146" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="E146" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F146" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5150,16 +5174,16 @@
         <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D147" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E147" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F147" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5170,16 +5194,16 @@
         <v>151</v>
       </c>
       <c r="C148" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D148" t="s">
-        <v>429</v>
+        <v>371</v>
       </c>
       <c r="E148" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F148" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5190,16 +5214,16 @@
         <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D149" t="s">
-        <v>430</v>
+        <v>374</v>
       </c>
       <c r="E149" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F149" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5210,16 +5234,16 @@
         <v>153</v>
       </c>
       <c r="C150" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D150" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="E150" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F150" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5230,16 +5254,16 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D151" t="s">
-        <v>376</v>
+        <v>436</v>
       </c>
       <c r="E151" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F151" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5250,16 +5274,16 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D152" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E152" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F152" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5270,16 +5294,16 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D153" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="E153" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F153" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5290,16 +5314,16 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D154" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="E154" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F154" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5310,16 +5334,16 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D155" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="E155" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F155" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5330,16 +5354,16 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D156" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E156" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F156" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5350,16 +5374,16 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D157" t="s">
-        <v>431</v>
+        <v>371</v>
       </c>
       <c r="E157" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F157" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5370,16 +5394,16 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D158" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
       <c r="E158" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F158" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5390,16 +5414,16 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D159" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E159" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F159" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5410,16 +5434,16 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D160" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="E160" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F160" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5430,16 +5454,16 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D161" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="E161" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F161" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5450,16 +5474,16 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D162" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E162" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F162" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5470,16 +5494,16 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D163" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E163" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F163" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5490,16 +5514,16 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D164" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="E164" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F164" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5510,16 +5534,16 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D165" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="E165" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F165" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5530,16 +5554,16 @@
         <v>169</v>
       </c>
       <c r="C166" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D166" t="s">
-        <v>435</v>
+        <v>374</v>
       </c>
       <c r="E166" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F166" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5550,16 +5574,16 @@
         <v>170</v>
       </c>
       <c r="C167" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D167" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E167" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F167" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5570,16 +5594,16 @@
         <v>171</v>
       </c>
       <c r="C168" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D168" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="E168" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F168" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5590,16 +5614,16 @@
         <v>172</v>
       </c>
       <c r="C169" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D169" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E169" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="F169" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5610,16 +5634,16 @@
         <v>173</v>
       </c>
       <c r="C170" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D170" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="E170" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F170" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5630,16 +5654,16 @@
         <v>174</v>
       </c>
       <c r="C171" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D171" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E171" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="F171" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5650,16 +5674,16 @@
         <v>175</v>
       </c>
       <c r="C172" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D172" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="E172" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F172" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5670,16 +5694,16 @@
         <v>176</v>
       </c>
       <c r="C173" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D173" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E173" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F173" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5690,16 +5714,16 @@
         <v>177</v>
       </c>
       <c r="C174" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D174" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="E174" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="F174" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5710,16 +5734,16 @@
         <v>178</v>
       </c>
       <c r="C175" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D175" t="s">
-        <v>382</v>
+        <v>446</v>
       </c>
       <c r="E175" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F175" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5730,16 +5754,56 @@
         <v>179</v>
       </c>
       <c r="C176" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D176" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E176" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="F176" t="s">
-        <v>617</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177" t="s">
+        <v>357</v>
+      </c>
+      <c r="D177" t="s">
+        <v>385</v>
+      </c>
+      <c r="E177" t="s">
+        <v>447</v>
+      </c>
+      <c r="F177" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178" t="s">
+        <v>358</v>
+      </c>
+      <c r="D178" t="s">
+        <v>381</v>
+      </c>
+      <c r="E178" t="s">
+        <v>447</v>
+      </c>
+      <c r="F178" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/Results/FOOD.xlsx
+++ b/Results/FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="666">
   <si>
     <t>id</t>
   </si>
@@ -1096,265 +1096,385 @@
     <t>lousy</t>
   </si>
   <si>
-    <t>consistently</t>
+    <t>many|good</t>
   </si>
   <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>good|interesting</t>
+  </si>
+  <si>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>averagethe|sweet</t>
+  </si>
+  <si>
+    <t>innovative|innovative</t>
+  </si>
+  <si>
+    <t>extensive|purple</t>
+  </si>
+  <si>
+    <t>good|great</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>heavenly|heavenly|heavenly|heavenly|heavenly</t>
+  </si>
+  <si>
+    <t>fresh|fresh</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>prepared|prepared</t>
+  </si>
+  <si>
+    <t>tasty|fresh</t>
+  </si>
+  <si>
+    <t>good|good|good</t>
+  </si>
+  <si>
+    <t>dissapointing</t>
+  </si>
+  <si>
+    <t>bland|bland</t>
+  </si>
+  <si>
+    <t>great|great|great|great|great|great|great|great|great|great</t>
+  </si>
+  <si>
+    <t>incredible|incredible|incredible</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>soggy|soggy|soggy</t>
+  </si>
+  <si>
+    <t>best|best</t>
+  </si>
+  <si>
+    <t>good|great|amazing|great|good|great</t>
+  </si>
+  <si>
+    <t>delicious|unusual|fresh|delicious</t>
+  </si>
+  <si>
+    <t>fried|fried</t>
+  </si>
+  <si>
+    <t>japanese|japanese|japanese</t>
+  </si>
+  <si>
+    <t>good|prepared|good</t>
+  </si>
+  <si>
+    <t>delicious|delicious|great</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>great|great|great|great</t>
+  </si>
+  <si>
+    <t>great|great|great</t>
+  </si>
+  <si>
+    <t>yummy|yummy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>phenomenal</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>great|thai|thailand|excellent|great</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>crunchy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>great|great|great|great|great</t>
+  </si>
+  <si>
+    <t>only|only|only|only|best|best|baked</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>plain|plain</t>
+  </si>
+  <si>
+    <t>welll|welll|welll</t>
+  </si>
+  <si>
+    <t>delicious|exotic</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>rude</t>
-  </si>
-  <si>
-    <t>perfection</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>sweet</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>innovative</t>
-  </si>
-  <si>
-    <t>haze</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heavenly</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>good|good</t>
+  </si>
+  <si>
+    <t>delicious|most|delicious|most|delicious|fresh</t>
+  </si>
+  <si>
+    <t>nice|nice|nice</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>best|fast|fast</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>upstate|better|upstate|better</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>good|good|good|good|good</t>
+  </si>
+  <si>
+    <t>delicious|rough|delicious|rough|delicious</t>
+  </si>
+  <si>
+    <t>delicious|delicious|delicious</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>little|little|little</t>
+  </si>
+  <si>
+    <t>delicous</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>reasonable</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>overpriced</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>unusual</t>
-  </si>
-  <si>
-    <t>fried</t>
-  </si>
-  <si>
-    <t>bland</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>phenomenal</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>variety</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>fairly</t>
-  </si>
-  <si>
-    <t>beautifully</t>
+    <t>other</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>delicious|delicious</t>
+  </si>
+  <si>
+    <t>amazing|fresh|amazing|fresh|fresh|fresh|fresh</t>
+  </si>
+  <si>
+    <t>delicious|refreshing</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>inexpensive|good|good</t>
+  </si>
+  <si>
+    <t>less|more</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>timely|fresh</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>simple|simple</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>delicious|authentic</t>
+  </si>
+  <si>
+    <t>terrific</t>
+  </si>
+  <si>
+    <t>flavorless|flavorless|flavorless|flavorless</t>
+  </si>
+  <si>
+    <t>excellent|excellent</t>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
+    <t>thai|thai|thai</t>
+  </si>
+  <si>
+    <t>excellent|excellent|excellent|excellent</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>above|above</t>
+  </si>
+  <si>
+    <t>edible</t>
+  </si>
+  <si>
+    <t>bad|delicious|fresh</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>great|great|great|great|great|great|great</t>
+  </si>
+  <si>
+    <t>good|greatest|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|greatest|pricey|good|pricey|good</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>freeze</t>
-  </si>
-  <si>
-    <t>heaven</t>
-  </si>
-  <si>
-    <t>overlooked</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>rough</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>messy</t>
-  </si>
-  <si>
-    <t>delicous</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>organic</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>efficiently</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>authentic</t>
-  </si>
-  <si>
-    <t>terrific</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>superb</t>
-  </si>
-  <si>
-    <t>thai</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>redeeming</t>
-  </si>
-  <si>
-    <t>overdone</t>
-  </si>
-  <si>
-    <t>recommended</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>mortal</t>
+    <t>mortal|mortal</t>
   </si>
   <si>
     <t>exceptional</t>
   </si>
   <si>
+    <t>worth|worth|worth</t>
+  </si>
+  <si>
+    <t>best|most</t>
+  </si>
+  <si>
     <t>nasty</t>
   </si>
   <si>
     <t>extensive</t>
   </si>
   <si>
-    <t>top</t>
+    <t>good|good|great|great|great|great</t>
+  </si>
+  <si>
+    <t>tasty|tasty|great</t>
   </si>
   <si>
     <t>expensive</t>
   </si>
   <si>
-    <t>reasonably</t>
-  </si>
-  <si>
-    <t>exceeded</t>
+    <t>taiwanese</t>
+  </si>
+  <si>
+    <t>extensive|extensive</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>good|great|reasonable|great</t>
+  </si>
+  <si>
+    <t>goodbut|overpriced</t>
+  </si>
+  <si>
+    <t>amazing|amazing</t>
+  </si>
+  <si>
+    <t>good|chinese</t>
   </si>
   <si>
     <t>speedy</t>
   </si>
   <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>pricey</t>
-  </si>
-  <si>
-    <t>plentiful</t>
+    <t>good|trendy|good|friendly|expensive|friendly|expensive</t>
+  </si>
+  <si>
+    <t>pricey|pricey</t>
+  </si>
+  <si>
+    <t>solid|nice</t>
+  </si>
+  <si>
+    <t>flavorful</t>
   </si>
   <si>
     <t>horrible</t>
   </si>
   <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>inedible</t>
-  </si>
-  <si>
-    <t>complimentary</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>acceptable|good|acceptable|good</t>
+  </si>
+  <si>
+    <t>possible|inedible|inedible</t>
+  </si>
+  <si>
+    <t>good|good|fresh</t>
+  </si>
+  <si>
+    <t>indian|complimentary</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>good|fresh|great|free</t>
+  </si>
+  <si>
+    <t>fishy|fishy</t>
+  </si>
+  <si>
+    <t>empty|empty</t>
   </si>
   <si>
     <t>negative</t>
@@ -2286,10 +2406,10 @@
         <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F2" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2306,10 +2426,10 @@
         <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F3" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2326,10 +2446,10 @@
         <v>361</v>
       </c>
       <c r="E4" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F4" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2346,10 +2466,10 @@
         <v>362</v>
       </c>
       <c r="E5" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F5" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2366,10 +2486,10 @@
         <v>363</v>
       </c>
       <c r="E6" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F6" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2386,10 +2506,10 @@
         <v>364</v>
       </c>
       <c r="E7" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F7" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2406,10 +2526,10 @@
         <v>365</v>
       </c>
       <c r="E8" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F8" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2426,10 +2546,10 @@
         <v>366</v>
       </c>
       <c r="E9" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F9" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2443,13 +2563,13 @@
         <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E10" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F10" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2463,13 +2583,13 @@
         <v>191</v>
       </c>
       <c r="D11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E11" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F11" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2483,13 +2603,13 @@
         <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E12" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F12" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2503,13 +2623,13 @@
         <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F13" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2526,10 +2646,10 @@
         <v>370</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F14" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2546,10 +2666,10 @@
         <v>371</v>
       </c>
       <c r="E15" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F15" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2566,10 +2686,10 @@
         <v>372</v>
       </c>
       <c r="E16" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F16" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2586,10 +2706,10 @@
         <v>373</v>
       </c>
       <c r="E17" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F17" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2606,10 +2726,10 @@
         <v>374</v>
       </c>
       <c r="E18" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F18" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2626,10 +2746,10 @@
         <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F19" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2643,13 +2763,13 @@
         <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E20" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F20" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2663,13 +2783,13 @@
         <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E21" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F21" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2686,10 +2806,10 @@
         <v>377</v>
       </c>
       <c r="E22" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F22" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2706,10 +2826,10 @@
         <v>371</v>
       </c>
       <c r="E23" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F23" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2723,13 +2843,13 @@
         <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E24" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F24" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2743,13 +2863,13 @@
         <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F25" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2763,13 +2883,13 @@
         <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F26" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2783,13 +2903,13 @@
         <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E27" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F27" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2803,13 +2923,13 @@
         <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="E28" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F28" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2823,13 +2943,13 @@
         <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E29" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F29" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2843,13 +2963,13 @@
         <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E30" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F30" t="s">
-        <v>477</v>
+        <v>517</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2863,13 +2983,13 @@
         <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E31" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F31" t="s">
-        <v>478</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2883,13 +3003,13 @@
         <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E32" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F32" t="s">
-        <v>479</v>
+        <v>519</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2903,13 +3023,13 @@
         <v>213</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E33" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F33" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2923,13 +3043,13 @@
         <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E34" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F34" t="s">
-        <v>481</v>
+        <v>521</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2946,10 +3066,10 @@
         <v>371</v>
       </c>
       <c r="E35" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F35" t="s">
-        <v>482</v>
+        <v>522</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2963,13 +3083,13 @@
         <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="E36" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F36" t="s">
-        <v>483</v>
+        <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2982,11 +3102,14 @@
       <c r="C37" t="s">
         <v>217</v>
       </c>
+      <c r="D37" t="s">
+        <v>389</v>
+      </c>
       <c r="E37" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F37" t="s">
-        <v>484</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3000,13 +3123,13 @@
         <v>218</v>
       </c>
       <c r="D38" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="E38" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F38" t="s">
-        <v>485</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3020,13 +3143,13 @@
         <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="E39" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F39" t="s">
-        <v>486</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3040,13 +3163,13 @@
         <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E40" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F40" t="s">
-        <v>487</v>
+        <v>527</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3060,13 +3183,13 @@
         <v>221</v>
       </c>
       <c r="D41" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="E41" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F41" t="s">
-        <v>488</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3080,13 +3203,13 @@
         <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="E42" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F42" t="s">
-        <v>489</v>
+        <v>529</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3100,13 +3223,13 @@
         <v>223</v>
       </c>
       <c r="D43" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="E43" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F43" t="s">
-        <v>490</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3123,10 +3246,10 @@
         <v>374</v>
       </c>
       <c r="E44" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F44" t="s">
-        <v>491</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3140,13 +3263,13 @@
         <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E45" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F45" t="s">
-        <v>492</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3160,13 +3283,13 @@
         <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="E46" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F46" t="s">
-        <v>493</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3183,10 +3306,10 @@
         <v>371</v>
       </c>
       <c r="E47" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F47" t="s">
-        <v>494</v>
+        <v>534</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3200,13 +3323,13 @@
         <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E48" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F48" t="s">
-        <v>495</v>
+        <v>535</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3220,13 +3343,13 @@
         <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E49" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F49" t="s">
-        <v>496</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3240,13 +3363,13 @@
         <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="E50" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F50" t="s">
-        <v>497</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3260,13 +3383,13 @@
         <v>231</v>
       </c>
       <c r="D51" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="E51" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F51" t="s">
-        <v>498</v>
+        <v>538</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3280,13 +3403,13 @@
         <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="E52" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F52" t="s">
-        <v>499</v>
+        <v>539</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3299,14 +3422,11 @@
       <c r="C53" t="s">
         <v>233</v>
       </c>
-      <c r="D53" t="s">
-        <v>391</v>
-      </c>
       <c r="E53" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F53" t="s">
-        <v>500</v>
+        <v>540</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3320,13 +3440,13 @@
         <v>234</v>
       </c>
       <c r="D54" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E54" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F54" t="s">
-        <v>501</v>
+        <v>541</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3340,13 +3460,13 @@
         <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E55" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F55" t="s">
-        <v>502</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3363,10 +3483,10 @@
         <v>361</v>
       </c>
       <c r="E56" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F56" t="s">
-        <v>503</v>
+        <v>543</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3380,13 +3500,13 @@
         <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="E57" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F57" t="s">
-        <v>504</v>
+        <v>544</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3400,13 +3520,13 @@
         <v>238</v>
       </c>
       <c r="D58" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
       <c r="E58" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F58" t="s">
-        <v>505</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3420,13 +3540,13 @@
         <v>239</v>
       </c>
       <c r="D59" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="E59" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F59" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3440,13 +3560,13 @@
         <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="E60" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F60" t="s">
-        <v>507</v>
+        <v>547</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3460,13 +3580,13 @@
         <v>241</v>
       </c>
       <c r="D61" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="E61" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F61" t="s">
-        <v>508</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3480,13 +3600,13 @@
         <v>242</v>
       </c>
       <c r="D62" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="E62" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F62" t="s">
-        <v>509</v>
+        <v>549</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3500,13 +3620,13 @@
         <v>243</v>
       </c>
       <c r="D63" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="E63" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F63" t="s">
-        <v>510</v>
+        <v>550</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3519,14 +3639,11 @@
       <c r="C64" t="s">
         <v>244</v>
       </c>
-      <c r="D64" t="s">
-        <v>393</v>
-      </c>
       <c r="E64" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F64" t="s">
-        <v>511</v>
+        <v>551</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3540,13 +3657,13 @@
         <v>245</v>
       </c>
       <c r="D65" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="E65" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F65" t="s">
-        <v>512</v>
+        <v>552</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3560,13 +3677,13 @@
         <v>246</v>
       </c>
       <c r="D66" t="s">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="E66" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F66" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3580,13 +3697,13 @@
         <v>247</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E67" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F67" t="s">
-        <v>514</v>
+        <v>554</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3600,13 +3717,13 @@
         <v>248</v>
       </c>
       <c r="D68" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="E68" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F68" t="s">
-        <v>515</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3620,13 +3737,13 @@
         <v>249</v>
       </c>
       <c r="D69" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="E69" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F69" t="s">
-        <v>516</v>
+        <v>556</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3640,13 +3757,13 @@
         <v>250</v>
       </c>
       <c r="D70" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="E70" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F70" t="s">
-        <v>517</v>
+        <v>557</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3660,13 +3777,13 @@
         <v>251</v>
       </c>
       <c r="D71" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="E71" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F71" t="s">
-        <v>518</v>
+        <v>558</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3680,13 +3797,13 @@
         <v>252</v>
       </c>
       <c r="D72" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="E72" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F72" t="s">
-        <v>519</v>
+        <v>559</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3700,13 +3817,13 @@
         <v>253</v>
       </c>
       <c r="D73" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="E73" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F73" t="s">
-        <v>520</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3720,10 +3837,10 @@
         <v>254</v>
       </c>
       <c r="E74" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F74" t="s">
-        <v>521</v>
+        <v>561</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3737,13 +3854,13 @@
         <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
       <c r="E75" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F75" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3757,13 +3874,13 @@
         <v>256</v>
       </c>
       <c r="D76" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="E76" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F76" t="s">
-        <v>523</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3776,14 +3893,11 @@
       <c r="C77" t="s">
         <v>257</v>
       </c>
-      <c r="D77" t="s">
-        <v>403</v>
-      </c>
       <c r="E77" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F77" t="s">
-        <v>524</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3797,13 +3911,13 @@
         <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>404</v>
+        <v>365</v>
       </c>
       <c r="E78" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F78" t="s">
-        <v>525</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3817,13 +3931,13 @@
         <v>259</v>
       </c>
       <c r="D79" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="E79" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F79" t="s">
-        <v>526</v>
+        <v>566</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3837,13 +3951,13 @@
         <v>260</v>
       </c>
       <c r="D80" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E80" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F80" t="s">
-        <v>527</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3857,13 +3971,13 @@
         <v>261</v>
       </c>
       <c r="D81" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="E81" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F81" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3877,13 +3991,13 @@
         <v>262</v>
       </c>
       <c r="D82" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E82" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F82" t="s">
-        <v>529</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3897,13 +4011,13 @@
         <v>263</v>
       </c>
       <c r="D83" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="E83" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F83" t="s">
-        <v>530</v>
+        <v>570</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3917,13 +4031,13 @@
         <v>264</v>
       </c>
       <c r="D84" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="E84" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F84" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3937,13 +4051,13 @@
         <v>265</v>
       </c>
       <c r="D85" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="E85" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F85" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3957,13 +4071,13 @@
         <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="E86" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F86" t="s">
-        <v>533</v>
+        <v>573</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3977,13 +4091,13 @@
         <v>267</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>426</v>
       </c>
       <c r="E87" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F87" t="s">
-        <v>534</v>
+        <v>574</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3997,13 +4111,13 @@
         <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="E88" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F88" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4017,13 +4131,13 @@
         <v>269</v>
       </c>
       <c r="D89" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="E89" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F89" t="s">
-        <v>536</v>
+        <v>576</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4037,13 +4151,13 @@
         <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="E90" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F90" t="s">
-        <v>537</v>
+        <v>577</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4057,13 +4171,13 @@
         <v>271</v>
       </c>
       <c r="D91" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="E91" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F91" t="s">
-        <v>538</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4077,13 +4191,13 @@
         <v>272</v>
       </c>
       <c r="D92" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="E92" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F92" t="s">
-        <v>539</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4097,13 +4211,13 @@
         <v>273</v>
       </c>
       <c r="D93" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E93" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F93" t="s">
-        <v>540</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4117,13 +4231,13 @@
         <v>274</v>
       </c>
       <c r="D94" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="E94" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F94" t="s">
-        <v>541</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4137,13 +4251,13 @@
         <v>275</v>
       </c>
       <c r="D95" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E95" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F95" t="s">
-        <v>542</v>
+        <v>582</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4157,13 +4271,13 @@
         <v>276</v>
       </c>
       <c r="D96" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="E96" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F96" t="s">
-        <v>543</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4177,13 +4291,13 @@
         <v>277</v>
       </c>
       <c r="D97" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="E97" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F97" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4197,13 +4311,13 @@
         <v>278</v>
       </c>
       <c r="D98" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="E98" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F98" t="s">
-        <v>545</v>
+        <v>585</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4220,10 +4334,10 @@
         <v>374</v>
       </c>
       <c r="E99" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F99" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4237,13 +4351,13 @@
         <v>280</v>
       </c>
       <c r="D100" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="E100" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F100" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4257,13 +4371,13 @@
         <v>281</v>
       </c>
       <c r="D101" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="E101" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F101" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4277,13 +4391,13 @@
         <v>282</v>
       </c>
       <c r="D102" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="E102" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F102" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4297,13 +4411,13 @@
         <v>283</v>
       </c>
       <c r="D103" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="E103" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F103" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4317,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="D104" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="E104" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F104" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4337,13 +4451,13 @@
         <v>285</v>
       </c>
       <c r="D105" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="E105" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F105" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4357,13 +4471,13 @@
         <v>286</v>
       </c>
       <c r="D106" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="E106" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F106" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4377,13 +4491,13 @@
         <v>287</v>
       </c>
       <c r="D107" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E107" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F107" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4397,13 +4511,13 @@
         <v>288</v>
       </c>
       <c r="D108" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="E108" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F108" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4420,10 +4534,10 @@
         <v>374</v>
       </c>
       <c r="E109" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F109" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4437,13 +4551,13 @@
         <v>290</v>
       </c>
       <c r="D110" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="E110" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F110" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4457,13 +4571,13 @@
         <v>291</v>
       </c>
       <c r="D111" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="E111" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F111" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4477,13 +4591,13 @@
         <v>292</v>
       </c>
       <c r="D112" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="E112" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F112" t="s">
-        <v>559</v>
+        <v>599</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4500,10 +4614,10 @@
         <v>359</v>
       </c>
       <c r="E113" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F113" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4517,13 +4631,13 @@
         <v>294</v>
       </c>
       <c r="D114" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="E114" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F114" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4537,13 +4651,13 @@
         <v>295</v>
       </c>
       <c r="D115" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="E115" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F115" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4557,13 +4671,13 @@
         <v>296</v>
       </c>
       <c r="D116" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="E116" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F116" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4580,10 +4694,10 @@
         <v>361</v>
       </c>
       <c r="E117" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F117" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4597,13 +4711,13 @@
         <v>298</v>
       </c>
       <c r="D118" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="E118" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F118" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4617,13 +4731,13 @@
         <v>299</v>
       </c>
       <c r="D119" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F119" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4637,13 +4751,13 @@
         <v>300</v>
       </c>
       <c r="D120" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="E120" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F120" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4657,13 +4771,13 @@
         <v>301</v>
       </c>
       <c r="D121" t="s">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="E121" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F121" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4677,13 +4791,13 @@
         <v>302</v>
       </c>
       <c r="D122" t="s">
-        <v>425</v>
+        <v>449</v>
       </c>
       <c r="E122" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F122" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4697,13 +4811,13 @@
         <v>303</v>
       </c>
       <c r="D123" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="E123" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F123" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4716,14 +4830,11 @@
       <c r="C124" t="s">
         <v>304</v>
       </c>
-      <c r="D124" t="s">
-        <v>426</v>
-      </c>
       <c r="E124" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F124" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4736,14 +4847,11 @@
       <c r="C125" t="s">
         <v>305</v>
       </c>
-      <c r="D125" t="s">
-        <v>427</v>
-      </c>
       <c r="E125" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F125" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4757,13 +4865,13 @@
         <v>306</v>
       </c>
       <c r="D126" t="s">
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="E126" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F126" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4777,13 +4885,13 @@
         <v>307</v>
       </c>
       <c r="D127" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="E127" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F127" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4797,13 +4905,13 @@
         <v>308</v>
       </c>
       <c r="D128" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="E128" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F128" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4817,13 +4925,13 @@
         <v>309</v>
       </c>
       <c r="D129" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="E129" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F129" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4837,13 +4945,13 @@
         <v>310</v>
       </c>
       <c r="D130" t="s">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="E130" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F130" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4857,13 +4965,13 @@
         <v>311</v>
       </c>
       <c r="D131" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="E131" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F131" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4877,13 +4985,13 @@
         <v>312</v>
       </c>
       <c r="D132" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="E132" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F132" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4897,13 +5005,13 @@
         <v>313</v>
       </c>
       <c r="D133" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
       <c r="E133" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F133" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4917,13 +5025,13 @@
         <v>314</v>
       </c>
       <c r="D134" t="s">
-        <v>376</v>
+        <v>459</v>
       </c>
       <c r="E134" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F134" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4937,13 +5045,13 @@
         <v>315</v>
       </c>
       <c r="D135" t="s">
-        <v>382</v>
+        <v>460</v>
       </c>
       <c r="E135" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F135" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4957,13 +5065,13 @@
         <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="E136" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F136" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4977,13 +5085,13 @@
         <v>317</v>
       </c>
       <c r="D137" t="s">
-        <v>378</v>
+        <v>399</v>
       </c>
       <c r="E137" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F137" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4997,13 +5105,13 @@
         <v>318</v>
       </c>
       <c r="D138" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E138" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F138" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5017,13 +5125,13 @@
         <v>319</v>
       </c>
       <c r="D139" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="E139" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F139" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5037,13 +5145,13 @@
         <v>320</v>
       </c>
       <c r="D140" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="E140" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F140" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5057,13 +5165,13 @@
         <v>321</v>
       </c>
       <c r="D141" t="s">
-        <v>371</v>
+        <v>463</v>
       </c>
       <c r="E141" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F141" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5077,13 +5185,13 @@
         <v>322</v>
       </c>
       <c r="D142" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="E142" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F142" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5100,10 +5208,10 @@
         <v>371</v>
       </c>
       <c r="E143" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F143" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5117,13 +5225,13 @@
         <v>324</v>
       </c>
       <c r="D144" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="E144" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F144" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5137,13 +5245,13 @@
         <v>325</v>
       </c>
       <c r="D145" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
       <c r="E145" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F145" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5157,13 +5265,13 @@
         <v>326</v>
       </c>
       <c r="D146" t="s">
-        <v>397</v>
+        <v>466</v>
       </c>
       <c r="E146" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F146" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5180,10 +5288,10 @@
         <v>371</v>
       </c>
       <c r="E147" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F147" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5197,13 +5305,13 @@
         <v>328</v>
       </c>
       <c r="D148" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E148" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F148" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5220,10 +5328,10 @@
         <v>374</v>
       </c>
       <c r="E149" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F149" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5237,13 +5345,13 @@
         <v>330</v>
       </c>
       <c r="D150" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="E150" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F150" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5257,13 +5365,13 @@
         <v>331</v>
       </c>
       <c r="D151" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="E151" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F151" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5277,13 +5385,13 @@
         <v>332</v>
       </c>
       <c r="D152" t="s">
-        <v>374</v>
+        <v>469</v>
       </c>
       <c r="E152" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F152" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5297,13 +5405,13 @@
         <v>333</v>
       </c>
       <c r="D153" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="E153" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F153" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5317,13 +5425,13 @@
         <v>334</v>
       </c>
       <c r="D154" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E154" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F154" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5337,13 +5445,13 @@
         <v>335</v>
       </c>
       <c r="D155" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="E155" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F155" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5357,13 +5465,13 @@
         <v>336</v>
       </c>
       <c r="D156" t="s">
-        <v>361</v>
+        <v>471</v>
       </c>
       <c r="E156" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F156" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5380,10 +5488,10 @@
         <v>371</v>
       </c>
       <c r="E157" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F157" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5397,13 +5505,13 @@
         <v>338</v>
       </c>
       <c r="D158" t="s">
-        <v>374</v>
+        <v>472</v>
       </c>
       <c r="E158" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F158" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5417,13 +5525,13 @@
         <v>339</v>
       </c>
       <c r="D159" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="E159" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F159" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5437,13 +5545,13 @@
         <v>340</v>
       </c>
       <c r="D160" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="E160" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F160" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5457,13 +5565,13 @@
         <v>341</v>
       </c>
       <c r="D161" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="E161" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F161" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5477,13 +5585,13 @@
         <v>342</v>
       </c>
       <c r="D162" t="s">
-        <v>398</v>
+        <v>476</v>
       </c>
       <c r="E162" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F162" t="s">
-        <v>609</v>
+        <v>649</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5497,13 +5605,13 @@
         <v>343</v>
       </c>
       <c r="D163" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E163" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F163" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5517,13 +5625,13 @@
         <v>344</v>
       </c>
       <c r="D164" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="E164" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F164" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5537,13 +5645,13 @@
         <v>345</v>
       </c>
       <c r="D165" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E165" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F165" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5557,13 +5665,13 @@
         <v>346</v>
       </c>
       <c r="D166" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="E166" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F166" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5577,13 +5685,13 @@
         <v>347</v>
       </c>
       <c r="D167" t="s">
-        <v>440</v>
+        <v>477</v>
       </c>
       <c r="E167" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F167" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5597,13 +5705,13 @@
         <v>348</v>
       </c>
       <c r="D168" t="s">
-        <v>441</v>
+        <v>478</v>
       </c>
       <c r="E168" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F168" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5617,13 +5725,13 @@
         <v>349</v>
       </c>
       <c r="D169" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="E169" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F169" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5637,13 +5745,13 @@
         <v>350</v>
       </c>
       <c r="D170" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="E170" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F170" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5657,13 +5765,13 @@
         <v>351</v>
       </c>
       <c r="D171" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="E171" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F171" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5677,13 +5785,13 @@
         <v>352</v>
       </c>
       <c r="D172" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="E172" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F172" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5697,13 +5805,13 @@
         <v>353</v>
       </c>
       <c r="D173" t="s">
-        <v>445</v>
+        <v>482</v>
       </c>
       <c r="E173" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F173" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5717,13 +5825,13 @@
         <v>354</v>
       </c>
       <c r="D174" t="s">
-        <v>410</v>
+        <v>483</v>
       </c>
       <c r="E174" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F174" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5737,13 +5845,13 @@
         <v>355</v>
       </c>
       <c r="D175" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="E175" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F175" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5757,13 +5865,13 @@
         <v>356</v>
       </c>
       <c r="D176" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="E176" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="F176" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5777,13 +5885,13 @@
         <v>357</v>
       </c>
       <c r="D177" t="s">
-        <v>385</v>
+        <v>485</v>
       </c>
       <c r="E177" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F177" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5797,13 +5905,13 @@
         <v>358</v>
       </c>
       <c r="D178" t="s">
-        <v>381</v>
+        <v>486</v>
       </c>
       <c r="E178" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F178" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/Results/FOOD.xlsx
+++ b/Results/FOOD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="662">
   <si>
     <t>id</t>
   </si>
@@ -46,9 +46,6 @@
     <t>1016296:4</t>
   </si>
   <si>
-    <t>1032695:1</t>
-  </si>
-  <si>
     <t>1032695:2</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>1064477:3</t>
   </si>
   <si>
-    <t>1064477:4</t>
-  </si>
-  <si>
     <t>1074868:4</t>
   </si>
   <si>
@@ -229,6 +223,9 @@
     <t>1230993:4</t>
   </si>
   <si>
+    <t>1232468:0</t>
+  </si>
+  <si>
     <t>1241906:0</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
     <t>1318537:0</t>
   </si>
   <si>
+    <t>1318537:4</t>
+  </si>
+  <si>
     <t>1328078:3</t>
   </si>
   <si>
@@ -577,9 +577,6 @@
     <t>chow fun was dry; pork shu mai was more than usually greasy and had to share a table with loud and rude family.</t>
   </si>
   <si>
-    <t>everything is always cooked to perfection, the service is excellent, the decor cool and understated.</t>
-  </si>
-  <si>
     <t>i had the duck breast special on my last visit and it was incredible.</t>
   </si>
   <si>
@@ -613,9 +610,6 @@
     <t>the rice to fish ration was also good--they didn't try to overpack the rice.</t>
   </si>
   <si>
-    <t>we took advanatage of the half price sushi deal on saturday so it was well worth it.</t>
-  </si>
-  <si>
     <t>the food was well prepared and the service impecable.</t>
   </si>
   <si>
@@ -760,6 +754,9 @@
     <t>the food was good too.</t>
   </si>
   <si>
+    <t>the tuna and wasabe potatoes are excellent.</t>
+  </si>
+  <si>
     <t>great service, great food.</t>
   </si>
   <si>
@@ -835,6 +832,9 @@
     <t>fresh restaurant was amazing........ food was delicious and of course fresh.</t>
   </si>
   <si>
+    <t>hats off to the chef.</t>
+  </si>
+  <si>
     <t>the salads are delicious, both refreshing and very spicy.</t>
   </si>
   <si>
@@ -1108,373 +1108,361 @@
     <t>rude</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>averagethe</t>
+  </si>
+  <si>
+    <t>innovative|innovative</t>
+  </si>
+  <si>
+    <t>extensive|purple</t>
+  </si>
+  <si>
+    <t>great|good</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>great|great</t>
+  </si>
+  <si>
+    <t>heavenly</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>prepared|prepared</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>tasty</t>
+  </si>
+  <si>
+    <t>good|good|good</t>
+  </si>
+  <si>
+    <t>dissapointing</t>
+  </si>
+  <si>
+    <t>bland|bland</t>
+  </si>
+  <si>
+    <t>great|great|great|great|great|great|great|great|great|great</t>
+  </si>
+  <si>
+    <t>incredible|incredible|incredible</t>
+  </si>
+  <si>
+    <t>cold|cold</t>
+  </si>
+  <si>
+    <t>soggy|soggy</t>
+  </si>
+  <si>
+    <t>good|good|fancy|good</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great|good|amazing|good|great|great</t>
+  </si>
+  <si>
+    <t>delicious|unusual|delicious</t>
+  </si>
+  <si>
+    <t>fried|fried</t>
+  </si>
+  <si>
+    <t>japanese|japanese|japanese|japanese</t>
+  </si>
+  <si>
+    <t>good|prepared|good</t>
+  </si>
+  <si>
+    <t>great|delicious|delicious</t>
+  </si>
+  <si>
+    <t>bland</t>
+  </si>
+  <si>
+    <t>great|great|great|great</t>
+  </si>
+  <si>
+    <t>great|great|great</t>
+  </si>
+  <si>
+    <t>yummy|yummy</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>phenomenal</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>great|thai|thailand</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>crunchy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>great|great|great|great|great</t>
+  </si>
+  <si>
+    <t>only|only|only|only|best|best</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>welll|welll|welll</t>
+  </si>
+  <si>
+    <t>exotic|delicious</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>good|good</t>
+  </si>
+  <si>
+    <t>excellent|excellent|excellent</t>
+  </si>
+  <si>
+    <t>delicious|most|delicious|most|delicious</t>
+  </si>
+  <si>
+    <t>nice|nice|nice</t>
+  </si>
+  <si>
+    <t>fast|fast|best|best</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>upstate|better|upstate|better</t>
+  </si>
+  <si>
+    <t>uni</t>
+  </si>
+  <si>
+    <t>good|good|good|good|good</t>
+  </si>
+  <si>
+    <t>rough|delicious|rough|delicious|delicious</t>
+  </si>
+  <si>
+    <t>delicious|delicious|delicious</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>little|little|little</t>
+  </si>
+  <si>
+    <t>delicous</t>
+  </si>
+  <si>
+    <t>much|fresh|much|much|much|fresh</t>
+  </si>
+  <si>
+    <t>other|other</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>boring|boring|soggy|other|other</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>amazing|fresh|amazing</t>
+  </si>
+  <si>
+    <t>delicious|delicious</t>
+  </si>
+  <si>
+    <t>organic</t>
+  </si>
+  <si>
+    <t>more|less</t>
+  </si>
+  <si>
+    <t>nice|nice</t>
+  </si>
+  <si>
+    <t>timely</t>
+  </si>
+  <si>
+    <t>simple|simple</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>big|big</t>
+  </si>
+  <si>
+    <t>authentic|delicious</t>
+  </si>
+  <si>
+    <t>terrific</t>
+  </si>
+  <si>
+    <t>flavorless|flavorless|flavorless|flavorless</t>
+  </si>
+  <si>
+    <t>excellent|excellent</t>
+  </si>
+  <si>
+    <t>superb</t>
+  </si>
+  <si>
+    <t>thai|thai</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>above|above</t>
+  </si>
+  <si>
+    <t>edible|bland|weird|weird|weird</t>
+  </si>
+  <si>
+    <t>bad|delicious</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>ashamed</t>
+  </si>
+  <si>
+    <t>great|great|great|great|great|great</t>
+  </si>
+  <si>
+    <t>greatest|good|pricey|good|pricey|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|greatest</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>mortal|mortal</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>worth|worth</t>
+  </si>
+  <si>
+    <t>best|most</t>
+  </si>
+  <si>
+    <t>nasty</t>
+  </si>
+  <si>
+    <t>extensive</t>
+  </si>
+  <si>
+    <t>great|great|great|great|good|good</t>
+  </si>
+  <si>
+    <t>great|tasty|tasty</t>
+  </si>
+  <si>
+    <t>expensive</t>
+  </si>
+  <si>
+    <t>taiwanese</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>great|good|great|reasonable</t>
+  </si>
+  <si>
+    <t>goodbut</t>
+  </si>
+  <si>
+    <t>amazing|amazing</t>
+  </si>
+  <si>
+    <t>good|chinese</t>
+  </si>
+  <si>
+    <t>speedy</t>
+  </si>
+  <si>
+    <t>good|friendly|expensive|friendly|expensive|good|trendy</t>
+  </si>
+  <si>
+    <t>pricey|pricey</t>
+  </si>
+  <si>
+    <t>solid|nice</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>averagethe|sweet</t>
-  </si>
-  <si>
-    <t>innovative|innovative</t>
-  </si>
-  <si>
-    <t>extensive|purple</t>
-  </si>
-  <si>
-    <t>good|great</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>great|great</t>
-  </si>
-  <si>
-    <t>heavenly|heavenly|heavenly|heavenly|heavenly</t>
-  </si>
-  <si>
-    <t>fresh|fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>prepared|prepared</t>
-  </si>
-  <si>
-    <t>tasty|fresh</t>
-  </si>
-  <si>
-    <t>good|good|good</t>
-  </si>
-  <si>
-    <t>dissapointing</t>
-  </si>
-  <si>
-    <t>bland|bland</t>
-  </si>
-  <si>
-    <t>great|great|great|great|great|great|great|great|great|great</t>
-  </si>
-  <si>
-    <t>incredible|incredible|incredible</t>
-  </si>
-  <si>
-    <t>cold</t>
-  </si>
-  <si>
-    <t>soggy|soggy|soggy</t>
-  </si>
-  <si>
-    <t>best|best</t>
-  </si>
-  <si>
-    <t>good|great|amazing|great|good|great</t>
-  </si>
-  <si>
-    <t>delicious|unusual|fresh|delicious</t>
-  </si>
-  <si>
-    <t>fried|fried</t>
-  </si>
-  <si>
-    <t>japanese|japanese|japanese</t>
-  </si>
-  <si>
-    <t>good|prepared|good</t>
-  </si>
-  <si>
-    <t>delicious|delicious|great</t>
-  </si>
-  <si>
-    <t>bland</t>
-  </si>
-  <si>
-    <t>great|great|great|great</t>
-  </si>
-  <si>
-    <t>great|great|great</t>
-  </si>
-  <si>
-    <t>yummy|yummy</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>phenomenal</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>|</t>
-  </si>
-  <si>
-    <t>great|thai|thailand|excellent|great</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>crunchy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>great|great|great|great|great</t>
-  </si>
-  <si>
-    <t>only|only|only|only|best|best|baked</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>plain|plain</t>
-  </si>
-  <si>
-    <t>welll|welll|welll</t>
-  </si>
-  <si>
-    <t>delicious|exotic</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good|good</t>
-  </si>
-  <si>
-    <t>delicious|most|delicious|most|delicious|fresh</t>
-  </si>
-  <si>
-    <t>nice|nice|nice</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>best|fast|fast</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>upstate|better|upstate|better</t>
-  </si>
-  <si>
-    <t>uni</t>
-  </si>
-  <si>
-    <t>good|good|good|good|good</t>
-  </si>
-  <si>
-    <t>delicious|rough|delicious|rough|delicious</t>
-  </si>
-  <si>
-    <t>delicious|delicious|delicious</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>little|little|little</t>
-  </si>
-  <si>
-    <t>delicous</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>delicious|delicious</t>
-  </si>
-  <si>
-    <t>amazing|fresh|amazing|fresh|fresh|fresh|fresh</t>
-  </si>
-  <si>
-    <t>delicious|refreshing</t>
-  </si>
-  <si>
-    <t>organic</t>
-  </si>
-  <si>
-    <t>inexpensive|good|good</t>
-  </si>
-  <si>
-    <t>less|more</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>timely|fresh</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>simple|simple</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>delicious|authentic</t>
-  </si>
-  <si>
-    <t>terrific</t>
-  </si>
-  <si>
-    <t>flavorless|flavorless|flavorless|flavorless</t>
-  </si>
-  <si>
-    <t>excellent|excellent</t>
-  </si>
-  <si>
-    <t>superb</t>
-  </si>
-  <si>
-    <t>thai|thai|thai</t>
-  </si>
-  <si>
-    <t>excellent|excellent|excellent|excellent</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>above|above</t>
-  </si>
-  <si>
-    <t>edible</t>
-  </si>
-  <si>
-    <t>bad|delicious|fresh</t>
-  </si>
-  <si>
-    <t>||</t>
-  </si>
-  <si>
-    <t>ashamed</t>
-  </si>
-  <si>
-    <t>great|great|great|great|great|great|great</t>
-  </si>
-  <si>
-    <t>good|greatest|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|pricey|greatest|good|good|good|greatest|pricey|good|pricey|good</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>mortal|mortal</t>
-  </si>
-  <si>
-    <t>exceptional</t>
-  </si>
-  <si>
-    <t>worth|worth|worth</t>
-  </si>
-  <si>
-    <t>best|most</t>
-  </si>
-  <si>
-    <t>nasty</t>
-  </si>
-  <si>
-    <t>extensive</t>
-  </si>
-  <si>
-    <t>good|good|great|great|great|great</t>
-  </si>
-  <si>
-    <t>tasty|tasty|great</t>
-  </si>
-  <si>
-    <t>expensive</t>
-  </si>
-  <si>
-    <t>taiwanese</t>
-  </si>
-  <si>
-    <t>extensive|extensive</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>good|great|reasonable|great</t>
-  </si>
-  <si>
-    <t>goodbut|overpriced</t>
-  </si>
-  <si>
-    <t>amazing|amazing</t>
-  </si>
-  <si>
-    <t>good|chinese</t>
-  </si>
-  <si>
-    <t>speedy</t>
-  </si>
-  <si>
-    <t>good|trendy|good|friendly|expensive|friendly|expensive</t>
-  </si>
-  <si>
-    <t>pricey|pricey</t>
-  </si>
-  <si>
-    <t>solid|nice</t>
-  </si>
-  <si>
     <t>flavorful</t>
   </si>
   <si>
     <t>horrible</t>
   </si>
   <si>
-    <t>acceptable|good|acceptable|good</t>
-  </si>
-  <si>
-    <t>possible|inedible|inedible</t>
-  </si>
-  <si>
-    <t>good|good|fresh</t>
-  </si>
-  <si>
-    <t>indian|complimentary</t>
+    <t>good|good|acceptable|acceptable</t>
+  </si>
+  <si>
+    <t>possible|inedible</t>
+  </si>
+  <si>
+    <t>indian</t>
   </si>
   <si>
     <t>such</t>
   </si>
   <si>
-    <t>good|fresh|great|free</t>
+    <t>great|good|free</t>
   </si>
   <si>
     <t>fishy|fishy</t>
   </si>
   <si>
-    <t>empty|empty</t>
+    <t>empty|stale</t>
   </si>
   <si>
     <t>negative</t>
@@ -1498,9 +1486,6 @@
     <t>['chow', 'fun', 'dry', 'pork', 'shu', 'mai', 'usually', 'greasy', 'share', 'table', 'loud', 'rude', 'family']</t>
   </si>
   <si>
-    <t>['everything', 'always', 'cooked', 'perfection', 'service', 'excellent', 'decor', 'cool', 'understated']</t>
-  </si>
-  <si>
     <t>['duck', 'breast', 'special', 'last', 'visit', 'incredible']</t>
   </si>
   <si>
@@ -1534,9 +1519,6 @@
     <t>['rice', 'fish', 'ration', 'also', 'goodthey', 'try', 'overpack', 'rice']</t>
   </si>
   <si>
-    <t>['took', 'advanatage', 'half', 'price', 'sushi', 'deal', 'saturday', 'well', 'worth']</t>
-  </si>
-  <si>
     <t>['food', 'well', 'prepared', 'service', 'impecable']</t>
   </si>
   <si>
@@ -1681,6 +1663,9 @@
     <t>['food', 'good']</t>
   </si>
   <si>
+    <t>['tuna', 'wasabe', 'potato', 'excellent']</t>
+  </si>
+  <si>
     <t>['great', 'service', 'great', 'food']</t>
   </si>
   <si>
@@ -1754,6 +1739,9 @@
   </si>
   <si>
     <t>['fresh', 'restaurant', 'amazing', 'food', 'delicious', 'course', 'fresh']</t>
+  </si>
+  <si>
+    <t>['hat', 'chef']</t>
   </si>
   <si>
     <t>['salad', 'delicious', 'refreshing', 'spicy']</t>
@@ -2406,10 +2394,10 @@
         <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F2" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2426,10 +2414,10 @@
         <v>360</v>
       </c>
       <c r="E3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2446,10 +2434,10 @@
         <v>361</v>
       </c>
       <c r="E4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2466,10 +2454,10 @@
         <v>362</v>
       </c>
       <c r="E5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F5" t="s">
         <v>488</v>
-      </c>
-      <c r="F5" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2486,10 +2474,10 @@
         <v>363</v>
       </c>
       <c r="E6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2506,10 +2494,10 @@
         <v>364</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2526,10 +2514,10 @@
         <v>365</v>
       </c>
       <c r="E8" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F8" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2543,13 +2531,13 @@
         <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2563,13 +2551,13 @@
         <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F10" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2586,10 +2574,10 @@
         <v>367</v>
       </c>
       <c r="E11" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F11" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2606,10 +2594,10 @@
         <v>368</v>
       </c>
       <c r="E12" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2626,10 +2614,10 @@
         <v>369</v>
       </c>
       <c r="E13" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F13" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2646,10 +2634,10 @@
         <v>370</v>
       </c>
       <c r="E14" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F14" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2666,10 +2654,10 @@
         <v>371</v>
       </c>
       <c r="E15" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F15" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2686,10 +2674,10 @@
         <v>372</v>
       </c>
       <c r="E16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F16" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2706,10 +2694,10 @@
         <v>373</v>
       </c>
       <c r="E17" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F17" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2726,10 +2714,10 @@
         <v>374</v>
       </c>
       <c r="E18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F18" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2746,10 +2734,10 @@
         <v>375</v>
       </c>
       <c r="E19" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F19" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2766,10 +2754,10 @@
         <v>376</v>
       </c>
       <c r="E20" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F20" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2783,13 +2771,13 @@
         <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E21" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F21" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2806,10 +2794,10 @@
         <v>377</v>
       </c>
       <c r="E22" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F22" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2823,13 +2811,13 @@
         <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E23" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F23" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2843,13 +2831,13 @@
         <v>204</v>
       </c>
       <c r="D24" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E24" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F24" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2863,13 +2851,13 @@
         <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E25" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F25" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2883,13 +2871,13 @@
         <v>206</v>
       </c>
       <c r="D26" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E26" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F26" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2903,13 +2891,13 @@
         <v>207</v>
       </c>
       <c r="D27" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E27" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F27" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2923,13 +2911,13 @@
         <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E28" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F28" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2943,13 +2931,13 @@
         <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E29" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F29" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2963,13 +2951,13 @@
         <v>210</v>
       </c>
       <c r="D30" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E30" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F30" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2983,13 +2971,13 @@
         <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E31" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F31" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3003,13 +2991,13 @@
         <v>212</v>
       </c>
       <c r="D32" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E32" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F32" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3023,13 +3011,13 @@
         <v>213</v>
       </c>
       <c r="D33" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E33" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F33" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3043,13 +3031,13 @@
         <v>214</v>
       </c>
       <c r="D34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E34" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F34" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3063,13 +3051,13 @@
         <v>215</v>
       </c>
       <c r="D35" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="E35" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F35" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3083,13 +3071,13 @@
         <v>216</v>
       </c>
       <c r="D36" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E36" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F36" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3103,13 +3091,13 @@
         <v>217</v>
       </c>
       <c r="D37" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="E37" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F37" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3123,13 +3111,13 @@
         <v>218</v>
       </c>
       <c r="D38" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E38" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F38" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3143,13 +3131,13 @@
         <v>219</v>
       </c>
       <c r="D39" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E39" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F39" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3163,13 +3151,13 @@
         <v>220</v>
       </c>
       <c r="D40" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E40" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F40" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3183,13 +3171,13 @@
         <v>221</v>
       </c>
       <c r="D41" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E41" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F41" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3203,13 +3191,13 @@
         <v>222</v>
       </c>
       <c r="D42" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="E42" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F42" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3223,13 +3211,13 @@
         <v>223</v>
       </c>
       <c r="D43" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E43" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F43" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3243,13 +3231,13 @@
         <v>224</v>
       </c>
       <c r="D44" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="E44" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F44" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3263,13 +3251,13 @@
         <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
       <c r="E45" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F45" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3283,13 +3271,13 @@
         <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E46" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F46" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3303,13 +3291,13 @@
         <v>227</v>
       </c>
       <c r="D47" t="s">
-        <v>371</v>
+        <v>398</v>
       </c>
       <c r="E47" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F47" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3323,13 +3311,13 @@
         <v>228</v>
       </c>
       <c r="D48" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="E48" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F48" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3343,13 +3331,13 @@
         <v>229</v>
       </c>
       <c r="D49" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E49" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F49" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3363,13 +3351,13 @@
         <v>230</v>
       </c>
       <c r="D50" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E50" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F50" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3382,14 +3370,11 @@
       <c r="C51" t="s">
         <v>231</v>
       </c>
-      <c r="D51" t="s">
-        <v>400</v>
-      </c>
       <c r="E51" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F51" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3403,13 +3388,13 @@
         <v>232</v>
       </c>
       <c r="D52" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="E52" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F52" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3422,11 +3407,14 @@
       <c r="C53" t="s">
         <v>233</v>
       </c>
+      <c r="D53" t="s">
+        <v>402</v>
+      </c>
       <c r="E53" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F53" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3440,13 +3428,13 @@
         <v>234</v>
       </c>
       <c r="D54" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
       <c r="E54" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F54" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3460,13 +3448,13 @@
         <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E55" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F55" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3480,13 +3468,13 @@
         <v>236</v>
       </c>
       <c r="D56" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="E56" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F56" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3500,13 +3488,13 @@
         <v>237</v>
       </c>
       <c r="D57" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E57" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F57" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3520,13 +3508,13 @@
         <v>238</v>
       </c>
       <c r="D58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E58" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F58" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3540,13 +3528,13 @@
         <v>239</v>
       </c>
       <c r="D59" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E59" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F59" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3560,13 +3548,13 @@
         <v>240</v>
       </c>
       <c r="D60" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E60" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F60" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3580,13 +3568,13 @@
         <v>241</v>
       </c>
       <c r="D61" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E61" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F61" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3599,14 +3587,11 @@
       <c r="C62" t="s">
         <v>242</v>
       </c>
-      <c r="D62" t="s">
-        <v>407</v>
-      </c>
       <c r="E62" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F62" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3620,13 +3605,13 @@
         <v>243</v>
       </c>
       <c r="D63" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E63" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F63" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3639,11 +3624,14 @@
       <c r="C64" t="s">
         <v>244</v>
       </c>
+      <c r="D64" t="s">
+        <v>410</v>
+      </c>
       <c r="E64" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F64" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3657,13 +3645,13 @@
         <v>245</v>
       </c>
       <c r="D65" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E65" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F65" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3677,13 +3665,13 @@
         <v>246</v>
       </c>
       <c r="D66" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E66" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F66" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3697,13 +3685,13 @@
         <v>247</v>
       </c>
       <c r="D67" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E67" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F67" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3717,13 +3705,13 @@
         <v>248</v>
       </c>
       <c r="D68" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E68" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F68" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3737,13 +3725,13 @@
         <v>249</v>
       </c>
       <c r="D69" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E69" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F69" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3757,13 +3745,13 @@
         <v>250</v>
       </c>
       <c r="D70" t="s">
-        <v>413</v>
+        <v>385</v>
       </c>
       <c r="E70" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F70" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3777,13 +3765,13 @@
         <v>251</v>
       </c>
       <c r="D71" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E71" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F71" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3797,13 +3785,13 @@
         <v>252</v>
       </c>
       <c r="D72" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E72" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F72" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3816,14 +3804,11 @@
       <c r="C73" t="s">
         <v>253</v>
       </c>
-      <c r="D73" t="s">
-        <v>416</v>
-      </c>
       <c r="E73" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F73" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3836,11 +3821,14 @@
       <c r="C74" t="s">
         <v>254</v>
       </c>
+      <c r="D74" t="s">
+        <v>417</v>
+      </c>
       <c r="E74" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F74" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3854,13 +3842,13 @@
         <v>255</v>
       </c>
       <c r="D75" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E75" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F75" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3873,14 +3861,11 @@
       <c r="C76" t="s">
         <v>256</v>
       </c>
-      <c r="D76" t="s">
-        <v>418</v>
-      </c>
       <c r="E76" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F76" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3893,11 +3878,14 @@
       <c r="C77" t="s">
         <v>257</v>
       </c>
+      <c r="D77" t="s">
+        <v>364</v>
+      </c>
       <c r="E77" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F77" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3911,13 +3899,13 @@
         <v>258</v>
       </c>
       <c r="D78" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="E78" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F78" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3931,13 +3919,13 @@
         <v>259</v>
       </c>
       <c r="D79" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="E79" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F79" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3951,13 +3939,13 @@
         <v>260</v>
       </c>
       <c r="D80" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="E80" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F80" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3971,13 +3959,13 @@
         <v>261</v>
       </c>
       <c r="D81" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E81" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F81" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3991,13 +3979,13 @@
         <v>262</v>
       </c>
       <c r="D82" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E82" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F82" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4011,13 +3999,13 @@
         <v>263</v>
       </c>
       <c r="D83" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E83" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F83" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4031,13 +4019,13 @@
         <v>264</v>
       </c>
       <c r="D84" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E84" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F84" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4051,13 +4039,13 @@
         <v>265</v>
       </c>
       <c r="D85" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E85" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F85" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4071,13 +4059,13 @@
         <v>266</v>
       </c>
       <c r="D86" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E86" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F86" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4091,13 +4079,13 @@
         <v>267</v>
       </c>
       <c r="D87" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E87" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F87" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4111,13 +4099,13 @@
         <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="E88" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F88" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4131,13 +4119,13 @@
         <v>269</v>
       </c>
       <c r="D89" t="s">
-        <v>392</v>
+        <v>428</v>
       </c>
       <c r="E89" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F89" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4151,13 +4139,13 @@
         <v>270</v>
       </c>
       <c r="D90" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E90" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F90" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4171,13 +4159,13 @@
         <v>271</v>
       </c>
       <c r="D91" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E91" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F91" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4190,14 +4178,11 @@
       <c r="C92" t="s">
         <v>272</v>
       </c>
-      <c r="D92" t="s">
-        <v>430</v>
-      </c>
       <c r="E92" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F92" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4214,10 +4199,10 @@
         <v>431</v>
       </c>
       <c r="E93" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F93" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4231,13 +4216,13 @@
         <v>274</v>
       </c>
       <c r="D94" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E94" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F94" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4254,10 +4239,10 @@
         <v>398</v>
       </c>
       <c r="E95" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F95" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4271,13 +4256,13 @@
         <v>276</v>
       </c>
       <c r="D96" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="E96" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F96" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4294,10 +4279,10 @@
         <v>432</v>
       </c>
       <c r="E97" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F97" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4311,13 +4296,13 @@
         <v>278</v>
       </c>
       <c r="D98" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="E98" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F98" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4331,13 +4316,13 @@
         <v>279</v>
       </c>
       <c r="D99" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E99" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F99" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4351,13 +4336,13 @@
         <v>280</v>
       </c>
       <c r="D100" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E100" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F100" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4374,10 +4359,10 @@
         <v>403</v>
       </c>
       <c r="E101" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F101" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4391,13 +4376,13 @@
         <v>282</v>
       </c>
       <c r="D102" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E102" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F102" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4411,13 +4396,13 @@
         <v>283</v>
       </c>
       <c r="D103" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E103" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F103" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4431,13 +4416,13 @@
         <v>284</v>
       </c>
       <c r="D104" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E104" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F104" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4451,13 +4436,13 @@
         <v>285</v>
       </c>
       <c r="D105" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E105" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F105" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4471,13 +4456,13 @@
         <v>286</v>
       </c>
       <c r="D106" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E106" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F106" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4494,10 +4479,10 @@
         <v>411</v>
       </c>
       <c r="E107" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F107" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4511,13 +4496,13 @@
         <v>288</v>
       </c>
       <c r="D108" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E108" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F108" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4531,13 +4516,13 @@
         <v>289</v>
       </c>
       <c r="D109" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E109" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F109" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4551,13 +4536,13 @@
         <v>290</v>
       </c>
       <c r="D110" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E110" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F110" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4571,13 +4556,13 @@
         <v>291</v>
       </c>
       <c r="D111" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E111" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F111" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4591,13 +4576,13 @@
         <v>292</v>
       </c>
       <c r="D112" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E112" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F112" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4614,10 +4599,10 @@
         <v>359</v>
       </c>
       <c r="E113" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F113" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4631,13 +4616,13 @@
         <v>294</v>
       </c>
       <c r="D114" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E114" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F114" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4651,13 +4636,13 @@
         <v>295</v>
       </c>
       <c r="D115" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E115" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F115" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4671,13 +4656,13 @@
         <v>296</v>
       </c>
       <c r="D116" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E116" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F116" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -4694,10 +4679,10 @@
         <v>361</v>
       </c>
       <c r="E117" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F117" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -4711,13 +4696,13 @@
         <v>298</v>
       </c>
       <c r="D118" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E118" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F118" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -4731,13 +4716,13 @@
         <v>299</v>
       </c>
       <c r="D119" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E119" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F119" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4751,13 +4736,13 @@
         <v>300</v>
       </c>
       <c r="D120" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="E120" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F120" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4771,13 +4756,13 @@
         <v>301</v>
       </c>
       <c r="D121" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E121" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F121" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4791,13 +4776,13 @@
         <v>302</v>
       </c>
       <c r="D122" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E122" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F122" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4811,13 +4796,13 @@
         <v>303</v>
       </c>
       <c r="D123" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E123" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F123" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4831,10 +4816,10 @@
         <v>304</v>
       </c>
       <c r="E124" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F124" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4848,10 +4833,10 @@
         <v>305</v>
       </c>
       <c r="E125" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F125" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4865,13 +4850,13 @@
         <v>306</v>
       </c>
       <c r="D126" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E126" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F126" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4885,13 +4870,13 @@
         <v>307</v>
       </c>
       <c r="D127" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E127" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F127" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4905,13 +4890,13 @@
         <v>308</v>
       </c>
       <c r="D128" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E128" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F128" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4925,13 +4910,13 @@
         <v>309</v>
       </c>
       <c r="D129" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E129" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F129" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4945,13 +4930,13 @@
         <v>310</v>
       </c>
       <c r="D130" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E130" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F130" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4965,13 +4950,13 @@
         <v>311</v>
       </c>
       <c r="D131" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E131" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F131" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4985,13 +4970,13 @@
         <v>312</v>
       </c>
       <c r="D132" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E132" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F132" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5005,13 +4990,13 @@
         <v>313</v>
       </c>
       <c r="D133" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E133" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F133" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5025,13 +5010,13 @@
         <v>314</v>
       </c>
       <c r="D134" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E134" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F134" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5045,13 +5030,13 @@
         <v>315</v>
       </c>
       <c r="D135" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E135" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F135" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5065,13 +5050,13 @@
         <v>316</v>
       </c>
       <c r="D136" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E136" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F136" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5084,14 +5069,11 @@
       <c r="C137" t="s">
         <v>317</v>
       </c>
-      <c r="D137" t="s">
-        <v>399</v>
-      </c>
       <c r="E137" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F137" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5108,10 +5090,10 @@
         <v>411</v>
       </c>
       <c r="E138" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F138" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5128,10 +5110,10 @@
         <v>403</v>
       </c>
       <c r="E139" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F139" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5145,13 +5127,13 @@
         <v>320</v>
       </c>
       <c r="D140" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E140" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F140" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5165,13 +5147,13 @@
         <v>321</v>
       </c>
       <c r="D141" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E141" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F141" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5185,13 +5167,13 @@
         <v>322</v>
       </c>
       <c r="D142" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E142" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F142" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5205,13 +5187,13 @@
         <v>323</v>
       </c>
       <c r="D143" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E143" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F143" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5225,13 +5207,13 @@
         <v>324</v>
       </c>
       <c r="D144" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E144" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F144" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5245,13 +5227,13 @@
         <v>325</v>
       </c>
       <c r="D145" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E145" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F145" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5265,13 +5247,13 @@
         <v>326</v>
       </c>
       <c r="D146" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E146" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F146" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5285,13 +5267,13 @@
         <v>327</v>
       </c>
       <c r="D147" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E147" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F147" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5305,13 +5287,13 @@
         <v>328</v>
       </c>
       <c r="D148" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E148" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F148" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5325,13 +5307,13 @@
         <v>329</v>
       </c>
       <c r="D149" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E149" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F149" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5345,13 +5327,13 @@
         <v>330</v>
       </c>
       <c r="D150" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="E150" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F150" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5365,13 +5347,13 @@
         <v>331</v>
       </c>
       <c r="D151" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E151" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F151" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5385,13 +5367,13 @@
         <v>332</v>
       </c>
       <c r="D152" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E152" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F152" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5405,13 +5387,13 @@
         <v>333</v>
       </c>
       <c r="D153" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E153" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F153" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5428,10 +5410,10 @@
         <v>411</v>
       </c>
       <c r="E154" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F154" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5445,13 +5427,13 @@
         <v>335</v>
       </c>
       <c r="D155" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E155" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F155" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5465,13 +5447,13 @@
         <v>336</v>
       </c>
       <c r="D156" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E156" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F156" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5485,13 +5467,13 @@
         <v>337</v>
       </c>
       <c r="D157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E157" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F157" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5505,13 +5487,13 @@
         <v>338</v>
       </c>
       <c r="D158" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E158" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F158" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5525,13 +5507,13 @@
         <v>339</v>
       </c>
       <c r="D159" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E159" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F159" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5545,13 +5527,13 @@
         <v>340</v>
       </c>
       <c r="D160" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E160" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F160" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -5565,13 +5547,13 @@
         <v>341</v>
       </c>
       <c r="D161" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E161" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F161" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5585,13 +5567,13 @@
         <v>342</v>
       </c>
       <c r="D162" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E162" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F162" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5605,13 +5587,13 @@
         <v>343</v>
       </c>
       <c r="D163" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="E163" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F163" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5625,13 +5607,13 @@
         <v>344</v>
       </c>
       <c r="D164" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="E164" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F164" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5645,13 +5627,13 @@
         <v>345</v>
       </c>
       <c r="D165" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E165" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F165" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5668,10 +5650,10 @@
         <v>411</v>
       </c>
       <c r="E166" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F166" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -5685,13 +5667,13 @@
         <v>347</v>
       </c>
       <c r="D167" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E167" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F167" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5705,13 +5687,13 @@
         <v>348</v>
       </c>
       <c r="D168" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E168" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F168" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5728,10 +5710,10 @@
         <v>399</v>
       </c>
       <c r="E169" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F169" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5745,13 +5727,13 @@
         <v>350</v>
       </c>
       <c r="D170" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E170" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F170" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5765,13 +5747,13 @@
         <v>351</v>
       </c>
       <c r="D171" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E171" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F171" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5785,13 +5767,13 @@
         <v>352</v>
       </c>
       <c r="D172" t="s">
-        <v>481</v>
+        <v>411</v>
       </c>
       <c r="E172" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F172" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5805,13 +5787,13 @@
         <v>353</v>
       </c>
       <c r="D173" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E173" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F173" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5825,13 +5807,13 @@
         <v>354</v>
       </c>
       <c r="D174" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E174" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F174" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5845,13 +5827,13 @@
         <v>355</v>
       </c>
       <c r="D175" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E175" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F175" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5865,13 +5847,13 @@
         <v>356</v>
       </c>
       <c r="D176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E176" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F176" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5885,13 +5867,13 @@
         <v>357</v>
       </c>
       <c r="D177" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E177" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F177" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5905,13 +5887,13 @@
         <v>358</v>
       </c>
       <c r="D178" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E178" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F178" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
